--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C81AEAC-CD0B-C844-BD67-F246FF9E651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E7983-B9AE-504E-A820-B0681EFDA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
   <sheets>
     <sheet name="pagado_pendiente" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="125">
   <si>
     <t>Asesor</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA RIOS BERNAL</t>
   </si>
   <si>
     <t>MIRIAM ROCIO LOMELI CHAVEZ</t>
@@ -758,39 +755,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="185">
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="141">
     <dxf>
       <border>
         <left style="hair">
@@ -847,70 +812,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -998,6 +899,70 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1021,70 +986,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1164,6 +1065,1081 @@
           <color indexed="64"/>
         </right>
         <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -1376,361 +2352,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1835,1335 +2456,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3477,6 +2775,46 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3758,65 +3096,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="184" dataDxfId="182" headerRowBorderDxfId="183" tableBorderDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137">
   <autoFilter ref="A2:F47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="180"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="176"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Recibo_Inicial_Pendiente" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Recibo_Inicial_Pendiente" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="64" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="63" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="62" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="61" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="60" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="59" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="58" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="57" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="107" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="106" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="105" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="104" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="103" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="102" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="101" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="100" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L50" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
-  <autoFilter ref="A2:L50" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+  <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="125"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="90"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="89"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D977C3CB-49E0-5142-8D60-6D53ECEB3B99}" name="Tabla6" displayName="Tabla6" ref="A2:I51" totalsRowShown="0">
-  <autoFilter ref="A2:I51" xr:uid="{D977C3CB-49E0-5142-8D60-6D53ECEB3B99}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D977C3CB-49E0-5142-8D60-6D53ECEB3B99}" name="Tabla6" displayName="Tabla6" ref="A2:I50" totalsRowShown="0">
+  <autoFilter ref="A2:I50" xr:uid="{D977C3CB-49E0-5142-8D60-6D53ECEB3B99}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B0483D80-6F49-024D-9EF0-CA79CF775114}" name="ASESOR"/>
     <tableColumn id="3" xr3:uid="{0F6D33F0-8B64-2042-A2C9-0E41CA3D4D75}" name="SUC"/>
@@ -3833,26 +3171,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="163" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="161"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="160"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="159" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="117" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="114"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="113" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="158" headerRowBorderDxfId="157" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -4198,7 +3536,7 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4233,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -5139,101 +4477,101 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="87" priority="15" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A46">
+    <cfRule type="expression" dxfId="86" priority="13" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="14" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="152" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="31" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="32" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B46">
+    <cfRule type="expression" dxfId="81" priority="10" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="11" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="147" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="34" stopIfTrue="1">
       <formula>$Q96=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="35" stopIfTrue="1">
       <formula>$Q95=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="145" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="52" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="53" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="51" stopIfTrue="1">
-      <formula>$Q46=1</formula>
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="expression" dxfId="75" priority="9" stopIfTrue="1">
+      <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="93" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="C4:D46">
+    <cfRule type="expression" dxfId="74" priority="7" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="91" priority="15" stopIfTrue="1">
-      <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="90" priority="12" stopIfTrue="1">
-      <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="89" priority="10" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="11" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D46">
-    <cfRule type="expression" dxfId="87" priority="7" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3">
-    <cfRule type="expression" dxfId="85" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="84" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="1" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F46">
-    <cfRule type="expression" dxfId="82" priority="3" stopIfTrue="1">
-      <formula>$S4=1</formula>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="69" priority="50" stopIfTrue="1">
+      <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="4" stopIfTrue="1">
-      <formula>$S3=1</formula>
+    <cfRule type="expression" dxfId="68" priority="51" stopIfTrue="1">
+      <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="80" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="67" priority="6" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="79" priority="6" stopIfTrue="1">
-      <formula>$S$34=1</formula>
+  <conditionalFormatting sqref="F4:F46">
+    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
+      <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5248,7 +4586,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView zoomScale="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5272,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="32" x14ac:dyDescent="0.4">
       <c r="A1" s="37">
-        <v>46066</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="56" x14ac:dyDescent="0.2">
@@ -5283,34 +4621,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>1</v>
@@ -5319,34 +4657,34 @@
         <v>48</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="X2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -5369,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="16">
-        <v>3905</v>
+        <v>3904.72</v>
       </c>
       <c r="H3" s="16">
-        <v>2869.61</v>
+        <v>2870</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>49</v>
@@ -5384,37 +4722,37 @@
         <v>2043</v>
       </c>
       <c r="O3" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="10">
         <v>2</v>
       </c>
       <c r="Q3" s="11">
-        <v>7.1400000000000005E-2</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="R3" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" s="11">
-        <v>0.17860000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="T3" s="10">
         <v>2</v>
       </c>
       <c r="U3" s="11">
-        <v>7.1400000000000005E-2</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="V3" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3" s="11">
-        <v>0.1071</v>
+        <v>0.1852</v>
       </c>
       <c r="X3" s="12">
-        <v>245777</v>
+        <v>351124.3</v>
       </c>
       <c r="Y3" s="12">
-        <v>64136.9</v>
+        <v>96470</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -5437,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="16">
-        <v>4663</v>
+        <v>4663.49</v>
       </c>
       <c r="H4" s="16">
-        <v>1262.54</v>
+        <v>1263</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>49</v>
@@ -5511,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="16">
-        <v>9689</v>
+        <v>9688.8700000000008</v>
       </c>
       <c r="H5" s="16">
         <v>0</v>
@@ -5541,33 +4879,33 @@
         <v>0.22220000000000001</v>
       </c>
       <c r="R5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="11">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="T5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="11">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="V5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="11">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="X5" s="12">
-        <v>52240</v>
+        <v>64539.13</v>
       </c>
       <c r="Y5" s="12">
-        <v>4942.38</v>
+        <v>46429</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B6" s="19">
         <v>2043</v>
@@ -5585,10 +4923,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>0</v>
+        <v>1269.82</v>
       </c>
       <c r="H6" s="16">
-        <v>0</v>
+        <v>2325</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>49</v>
@@ -5596,8 +4934,12 @@
       <c r="J6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="N6" s="10">
         <v>2856</v>
       </c>
@@ -5617,10 +4959,10 @@
         <v>0.1429</v>
       </c>
       <c r="T6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="11">
-        <v>0.1429</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="V6" s="10">
         <v>2</v>
@@ -5629,59 +4971,53 @@
         <v>0.28570000000000001</v>
       </c>
       <c r="X6" s="12">
-        <v>48319</v>
+        <v>80542.61</v>
       </c>
       <c r="Y6" s="12">
-        <v>21627.85</v>
+        <v>25505</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7" s="19">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
       </c>
       <c r="E7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>1270</v>
+        <v>24293.37</v>
       </c>
       <c r="H7" s="16">
-        <v>2324.98</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>3262</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="19">
         <v>2692</v>
       </c>
       <c r="C8" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -5693,27 +5029,29 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>21460</v>
+        <v>11532.26</v>
       </c>
       <c r="H8" s="16">
-        <v>3262.07</v>
+        <v>1680</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
         <v>49</v>
       </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" s="19">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C9" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -5725,12 +5063,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>7696</v>
+        <v>9281.48</v>
       </c>
       <c r="H9" s="16">
-        <v>1680.31</v>
-      </c>
-      <c r="I9" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="17" t="s">
         <v>49</v>
       </c>
@@ -5741,7 +5081,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="19">
         <v>2043</v>
@@ -5759,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <v>1712</v>
+        <v>3279.92</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -5777,7 +5117,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="19">
         <v>2043</v>
@@ -5795,10 +5135,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>3063</v>
+        <v>27079.33</v>
       </c>
       <c r="H11" s="16">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>49</v>
@@ -5807,16 +5147,14 @@
         <v>49</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" s="19">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C12" s="15">
         <v>0</v>
@@ -5831,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>15935</v>
+        <v>3914.01</v>
       </c>
       <c r="H12" s="16">
-        <v>2160.37</v>
+        <v>0</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>49</v>
@@ -5842,12 +5180,14 @@
       <c r="J12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B13" s="19">
         <v>2692</v>
@@ -5865,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>3914</v>
+        <v>7460.84</v>
       </c>
       <c r="H13" s="16">
         <v>0</v>
@@ -5876,17 +5216,17 @@
       <c r="J13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B14" s="19">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -5901,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>7461</v>
+        <v>1329.68</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -5912,14 +5252,16 @@
       <c r="J14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="L14" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="19">
         <v>2043</v>
@@ -5937,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>1345.8</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>49</v>
@@ -5957,10 +5299,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B16" s="19">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C16" s="15">
         <v>0</v>
@@ -5986,19 +5328,15 @@
       <c r="J16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" s="19">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C17" s="15">
         <v>0</v>
@@ -6013,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>2833.03</v>
       </c>
       <c r="H17" s="16">
         <v>0</v>
@@ -6025,11 +5363,13 @@
         <v>49</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="19">
         <v>2043</v>
@@ -6038,102 +5378,102 @@
         <v>0</v>
       </c>
       <c r="D18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="16">
-        <v>0</v>
+        <v>7287.37</v>
       </c>
       <c r="H18" s="16">
-        <v>0</v>
+        <v>29054</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B19" s="19">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C19" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>40909.81</v>
       </c>
       <c r="H19" s="16">
-        <v>29053.99</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B20" s="19">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C20" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="15">
         <v>0</v>
       </c>
       <c r="E20" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <v>24148</v>
+        <v>0</v>
       </c>
       <c r="H20" s="16">
         <v>0</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="J20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B21" s="19">
         <v>2692</v>
@@ -6142,26 +5482,24 @@
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="15">
         <v>0</v>
       </c>
       <c r="F21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>11945.29</v>
       </c>
       <c r="H21" s="16">
-        <v>0</v>
+        <v>41487</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
         <v>49</v>
       </c>
@@ -6169,10 +5507,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B22" s="19">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -6187,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="16">
-        <v>6316</v>
+        <v>1712.03</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -6201,14 +5539,16 @@
       <c r="K22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B23" s="19">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -6223,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="16">
-        <v>1712</v>
+        <v>0</v>
       </c>
       <c r="H23" s="16">
         <v>0</v>
@@ -6234,19 +5574,15 @@
       <c r="J23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B24" s="19">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -6261,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="16">
-        <v>0</v>
+        <v>6639.64</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
@@ -6272,15 +5608,19 @@
       <c r="J24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="K24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="19">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -6315,10 +5655,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B26" s="19">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -6333,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>1297.97</v>
       </c>
       <c r="H26" s="16">
         <v>0</v>
@@ -6344,19 +5684,15 @@
       <c r="J26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B27" s="19">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -6371,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="16">
-        <v>1298</v>
+        <v>4487.59</v>
       </c>
       <c r="H27" s="16">
         <v>0</v>
@@ -6387,10 +5723,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="19">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
@@ -6405,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="16">
-        <v>2382</v>
+        <v>4095.39</v>
       </c>
       <c r="H28" s="16">
         <v>0</v>
@@ -6417,11 +5753,13 @@
         <v>49</v>
       </c>
       <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="L28" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B29" s="19">
         <v>2692</v>
@@ -6439,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="16">
-        <v>4095</v>
+        <v>0</v>
       </c>
       <c r="H29" s="16">
         <v>0</v>
@@ -6450,17 +5788,19 @@
       <c r="J29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="L29" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B30" s="19">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C30" s="15">
         <v>0</v>
@@ -6472,13 +5812,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="16">
-        <v>0</v>
+        <v>20077.400000000001</v>
       </c>
       <c r="H30" s="16">
-        <v>0</v>
+        <v>7755</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>49</v>
@@ -6486,25 +5826,21 @@
       <c r="J30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B31" s="19">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
       </c>
       <c r="D31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
@@ -6513,80 +5849,72 @@
         <v>1</v>
       </c>
       <c r="G31" s="16">
-        <v>20077</v>
+        <v>651.19000000000005</v>
       </c>
       <c r="H31" s="16">
-        <v>3877.39</v>
+        <v>7274</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B32" s="19">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="16">
-        <v>651</v>
+        <v>6716.14</v>
       </c>
       <c r="H32" s="16">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>17750</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="17"/>
-      <c r="L32" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B33" s="19">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C33" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
       </c>
       <c r="G33" s="16">
-        <v>0</v>
+        <v>71251.41</v>
       </c>
       <c r="H33" s="16">
-        <v>17750.46</v>
+        <v>24606</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
@@ -6595,37 +5923,41 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B34" s="19">
-        <v>2043</v>
+        <v>2511</v>
       </c>
       <c r="C34" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>38078</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16">
-        <v>8053.76</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B35" s="19">
         <v>2511</v>
@@ -6654,15 +5986,19 @@
       <c r="J35" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="K35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B36" s="19">
-        <v>2511</v>
+        <v>2043</v>
       </c>
       <c r="C36" s="15">
         <v>0</v>
@@ -6677,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>0</v>
+        <v>1721.93</v>
       </c>
       <c r="H36" s="16">
         <v>0</v>
@@ -6697,10 +6033,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B37" s="19">
-        <v>2043</v>
+        <v>2511</v>
       </c>
       <c r="C37" s="15">
         <v>0</v>
@@ -6715,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="16">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="H37" s="16">
         <v>0</v>
@@ -6726,19 +6062,15 @@
       <c r="J37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B38" s="19">
-        <v>2511</v>
+        <v>2043</v>
       </c>
       <c r="C38" s="15">
         <v>0</v>
@@ -6753,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="16">
-        <v>0</v>
+        <v>22054.400000000001</v>
       </c>
       <c r="H38" s="16">
         <v>0</v>
@@ -6769,7 +6101,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="19">
         <v>2043</v>
@@ -6787,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="16">
-        <v>20343</v>
+        <v>0</v>
       </c>
       <c r="H39" s="16">
         <v>0</v>
@@ -6803,10 +6135,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B40" s="19">
-        <v>2043</v>
+        <v>2511</v>
       </c>
       <c r="C40" s="15">
         <v>0</v>
@@ -6837,10 +6169,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B41" s="19">
-        <v>2511</v>
+        <v>2043</v>
       </c>
       <c r="C41" s="15">
         <v>0</v>
@@ -6855,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="16">
-        <v>0</v>
+        <v>14887.38</v>
       </c>
       <c r="H41" s="16">
         <v>0</v>
@@ -6866,12 +6198,16 @@
       <c r="J41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="K41" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B42" s="19">
         <v>2043</v>
@@ -6880,36 +6216,30 @@
         <v>0</v>
       </c>
       <c r="D42" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="F42" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="16">
-        <v>0</v>
+        <v>101140.27</v>
       </c>
       <c r="H42" s="16">
-        <v>0</v>
+        <v>18495</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B43" s="19">
         <v>2043</v>
@@ -6918,30 +6248,32 @@
         <v>0</v>
       </c>
       <c r="D43" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="F43" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="16">
-        <v>98976</v>
+        <v>4192.72</v>
       </c>
       <c r="H43" s="16">
-        <v>11547.36</v>
+        <v>0</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="17"/>
+      <c r="J43" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B44" s="19">
         <v>2043</v>
@@ -6959,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="16">
-        <v>4193</v>
+        <v>5138.51</v>
       </c>
       <c r="H44" s="16">
         <v>0</v>
@@ -6970,84 +6302,84 @@
       <c r="J44" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
+      <c r="K44" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="19">
         <v>2043</v>
       </c>
       <c r="C45" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
       </c>
       <c r="E45" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="16">
-        <v>5139</v>
+        <v>49792.33</v>
       </c>
       <c r="H45" s="16">
         <v>0</v>
       </c>
-      <c r="I45" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="I45" s="17"/>
       <c r="J45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K45" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="K45" s="17"/>
       <c r="L45" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="19">
         <v>2043</v>
       </c>
       <c r="C46" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="15">
         <v>0</v>
       </c>
       <c r="E46" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="16">
-        <v>36438</v>
+        <v>2133.91</v>
       </c>
       <c r="H46" s="16">
         <v>0</v>
       </c>
-      <c r="I46" s="17"/>
+      <c r="I46" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="J46" s="17" t="s">
         <v>49</v>
       </c>
       <c r="K46" s="17"/>
-      <c r="L46" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="19">
         <v>2043</v>
@@ -7076,12 +6408,16 @@
       <c r="J47" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="K47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="19">
         <v>2043</v>
@@ -7090,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="15">
         <v>0</v>
@@ -7099,27 +6435,21 @@
         <v>0</v>
       </c>
       <c r="G48" s="16">
-        <v>0</v>
+        <v>6196.74</v>
       </c>
       <c r="H48" s="16">
-        <v>0</v>
+        <v>5340</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B49" s="19">
         <v>2043</v>
@@ -7128,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -7140,198 +6470,166 @@
         <v>0</v>
       </c>
       <c r="H49" s="16">
-        <v>5339.76</v>
+        <v>1525</v>
       </c>
       <c r="I49" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
-        <v>0</v>
-      </c>
-      <c r="E50" s="15">
-        <v>0</v>
-      </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0</v>
-      </c>
-      <c r="H50" s="16">
-        <v>1524.53</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" s="17" t="s">
+      <c r="J49" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" s="17" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="78" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="76" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="74" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="73" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="72" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="71" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="70" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="69" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="68" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="67" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="66" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="65" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B50">
-    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="A3:A49">
+    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B50">
-    <cfRule type="expression" dxfId="53" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="A3:A49">
+    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A50">
-    <cfRule type="expression" dxfId="51" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B49">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A50">
-    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B49">
+    <cfRule type="expression" dxfId="39" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H50">
-    <cfRule type="expression" dxfId="48" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="C3:H49">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C50">
-    <cfRule type="expression" dxfId="47" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="C3:C49">
+    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D50">
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="D3:D49">
+    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E50">
-    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="E3:E49">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F50">
-    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F3:F49">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G50">
-    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G3:G49">
+    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H50">
-    <cfRule type="expression" dxfId="42" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="H3:H49">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I50">
-    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
-      <formula>$N3="i"</formula>
+  <conditionalFormatting sqref="I3:I49">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+      <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J50">
-    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
-      <formula>$O3="i"</formula>
+  <conditionalFormatting sqref="J3:J49">
+    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
+      <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K50">
-    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
-      <formula>$P3="i"</formula>
+  <conditionalFormatting sqref="K3:K49">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+      <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L50">
-    <cfRule type="expression" dxfId="35" priority="14" stopIfTrue="1">
-      <formula>$Q3="i"</formula>
+  <conditionalFormatting sqref="L3:L49">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+      <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7348,10 +6646,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7367,41 +6665,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.4">
       <c r="A1" s="37">
-        <v>46066</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>102</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2043</v>
@@ -7517,7 +6815,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>2511</v>
@@ -7546,7 +6844,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>2511</v>
@@ -7604,7 +6902,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>2043</v>
@@ -7662,7 +6960,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>2511</v>
@@ -7691,10 +6989,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7720,7 +7018,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2692</v>
@@ -7749,10 +7047,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -7778,10 +7076,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -7807,10 +7105,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -7836,10 +7134,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7865,10 +7163,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -7894,10 +7192,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -7923,10 +7221,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -7952,10 +7250,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7981,10 +7279,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -8010,7 +7308,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>2043</v>
@@ -8039,7 +7337,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>2043</v>
@@ -8068,7 +7366,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2043</v>
@@ -8097,7 +7395,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>2043</v>
@@ -8115,7 +7413,7 @@
         <v>49</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
@@ -8126,7 +7424,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>2043</v>
@@ -8155,74 +7453,74 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>2043</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="s">
         <v>49</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>2043</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="s">
         <v>49</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>2043</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>0.5</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -8242,16 +7540,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>2043</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>0.5</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -8271,7 +7569,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>2692</v>
@@ -8300,16 +7598,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>2043</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0.5</v>
@@ -8329,16 +7627,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>0.5</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
       </c>
       <c r="E35">
         <v>0.5</v>
@@ -8358,97 +7656,97 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>2043</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>49</v>
       </c>
       <c r="I36">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B37">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
       </c>
       <c r="G37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>49</v>
       </c>
       <c r="I37">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>2043</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
       </c>
       <c r="G38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>49</v>
       </c>
       <c r="I38">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B39">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8474,16 +7772,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -8503,10 +7801,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8535,7 +7833,7 @@
         <v>68</v>
       </c>
       <c r="B42">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8561,7 +7859,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>2692</v>
@@ -8590,138 +7888,138 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F44" t="s">
         <v>49</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="s">
         <v>49</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
         <v>49</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C46">
+        <v>1.5</v>
+      </c>
+      <c r="D46">
         <v>0.5</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
         <v>49</v>
       </c>
       <c r="I46">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>49</v>
       </c>
       <c r="I47">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -8730,27 +8028,27 @@
         <v>49</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>2043</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>2.5</v>
+      </c>
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="B49">
-        <v>2043</v>
-      </c>
-      <c r="C49">
-        <v>1.5</v>
-      </c>
-      <c r="D49">
-        <v>0.5</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -8759,27 +8057,27 @@
         <v>49</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>2856</v>
       </c>
       <c r="C50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -8788,35 +8086,6 @@
         <v>49</v>
       </c>
       <c r="I50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>2856</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51">
         <v>9</v>
       </c>
     </row>
@@ -8875,76 +8144,76 @@
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="S2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="22" t="s">
+      <c r="T2" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="U2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="33" t="s">
+      <c r="X2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="33" t="s">
+      <c r="Z2" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="AB2" s="33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -8997,7 +8266,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="30">
         <v>2043</v>
@@ -9141,7 +8410,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="30">
         <v>2511</v>
@@ -9237,7 +8506,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="30">
         <v>2511</v>
@@ -9301,7 +8570,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="30">
         <v>2043</v>
@@ -9557,7 +8826,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="30">
         <v>2043</v>
@@ -9589,7 +8858,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="30">
         <v>2043</v>
@@ -9909,7 +9178,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="30">
         <v>2692</v>
@@ -10037,7 +9306,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="30">
         <v>2692</v>
@@ -10101,7 +9370,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="30">
         <v>2043</v>
@@ -10133,7 +9402,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="30">
         <v>2856</v>
@@ -10293,7 +9562,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="30">
         <v>2043</v>
@@ -10389,7 +9658,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="30">
         <v>2043</v>
@@ -10421,7 +9690,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" s="30">
         <v>2692</v>
@@ -10869,122 +10138,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="20" priority="21">
+  <conditionalFormatting sqref="C3:C60">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C60">
     <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="13" priority="15">
+  <conditionalFormatting sqref="F3:F60">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="12" priority="14">
+  <conditionalFormatting sqref="G3:G60">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G60">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="J3:J60">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E7983-B9AE-504E-A820-B0681EFDA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF6BC5-D6E4-FB4E-B70F-447290AABD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16360" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
   <sheets>
     <sheet name="pagado_pendiente" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,202 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="146">
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="hair">
@@ -993,6 +1188,198 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="hair">
           <color indexed="64"/>
@@ -1409,22 +1796,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1501,6 +1872,13 @@
     </dxf>
     <dxf>
       <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -1523,7 +1901,7 @@
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="hair">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -1533,7 +1911,14 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -1549,7 +1934,14 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -1565,13 +1957,13 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="hair">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -1581,6 +1973,13 @@
     </dxf>
     <dxf>
       <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -1603,7 +2002,7 @@
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="hair">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -1613,6 +2012,13 @@
     </dxf>
     <dxf>
       <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -1629,7 +2035,14 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -1645,7 +2058,14 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -1661,13 +2081,13 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="hair">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -1677,6 +2097,13 @@
     </dxf>
     <dxf>
       <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -1692,11 +2119,13 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="hair">
           <color indexed="64"/>
@@ -1720,748 +2149,13 @@
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="hair">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Bookshelf Symbol 7"/>
-        <family val="2"/>
-        <charset val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Bookshelf Symbol 7"/>
-        <family val="2"/>
-        <charset val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Bookshelf Symbol 7"/>
-        <family val="2"/>
-        <charset val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Bookshelf Symbol 7"/>
-        <family val="2"/>
-        <charset val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2775,6 +2469,210 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Bookshelf Symbol 7"/>
+        <family val="2"/>
+        <charset val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Bookshelf Symbol 7"/>
+        <family val="2"/>
+        <charset val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Bookshelf Symbol 7"/>
+        <family val="2"/>
+        <charset val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Bookshelf Symbol 7"/>
+        <family val="2"/>
+        <charset val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2858,6 +2756,118 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3096,57 +3106,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142">
   <autoFilter ref="A2:F47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Recibo_Inicial_Pendiente" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="139"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="138"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="137"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Recibo_Inicial_Pendiente" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="107" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="106" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="105" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="104" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="103" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="102" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="101" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="100" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="99"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="131" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="130" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="129" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="128" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="127" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="126" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="125" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="124" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="123"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="89"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="112"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="110"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="109"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3171,26 +3181,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="122"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="117" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="114"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="113" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="100" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="96" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -3536,8 +3546,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3556,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="36">
-        <v>46070</v>
+        <v>46073</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
@@ -3607,7 +3617,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>2043</v>
@@ -3616,28 +3626,28 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>3018.58</v>
+        <v>61004.82</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>72844.100000000006</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>3273.67</v>
+        <v>3018.58</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -3649,22 +3659,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>36437.94</v>
+        <v>3273.67</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>72844.100000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3681,10 +3691,10 @@
         <v>7184.56</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>1935.08</v>
+        <v>15064.07</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3701,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>672629.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3721,10 +3731,10 @@
         <v>1584.48</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>2435.65</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3849,16 +3859,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>-6.95</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3889,16 +3899,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>1809.19</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3909,16 +3919,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>-6.95</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -3929,16 +3939,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>1809.19</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -3949,10 +3959,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -3969,10 +3979,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -3989,10 +3999,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -4001,18 +4011,18 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>36777.25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -4029,7 +4039,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
         <v>2043</v>
@@ -4049,10 +4059,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -4069,30 +4079,30 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2">
         <v>2856</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>2561.44</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>5165.8599999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -4109,10 +4119,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -4121,35 +4131,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>24131.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>2561.44</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>5165.8599999999997</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2">
         <v>2043</v>
@@ -4161,15 +4171,15 @@
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>24131.27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2">
         <v>2043</v>
@@ -4189,7 +4199,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
         <v>2043</v>
@@ -4209,10 +4219,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -4229,7 +4239,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
         <v>2043</v>
@@ -4241,15 +4251,15 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>5102.97</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2">
         <v>2043</v>
@@ -4269,10 +4279,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -4289,7 +4299,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
         <v>2043</v>
@@ -4309,10 +4319,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -4329,10 +4339,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -4349,7 +4359,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B41" s="2">
         <v>2043</v>
@@ -4369,10 +4379,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -4389,10 +4399,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -4477,101 +4487,101 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="89" priority="46" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="47" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="84" priority="49" stopIfTrue="1">
+      <formula>$Q96=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="50" stopIfTrue="1">
+      <formula>$Q95=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:D47 F47">
+    <cfRule type="expression" dxfId="82" priority="67" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="68" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="74" priority="65" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="66" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A46">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="87" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="86" priority="13" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="14" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="84" priority="31" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="32" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="81" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="79" priority="34" stopIfTrue="1">
-      <formula>$Q96=1</formula>
+  <conditionalFormatting sqref="C4:D46">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="35" stopIfTrue="1">
-      <formula>$Q95=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="77" priority="52" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="53" stopIfTrue="1">
-      <formula>$Q46=1</formula>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
-    <cfRule type="expression" dxfId="75" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D46">
-    <cfRule type="expression" dxfId="74" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="E4:E46">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F46">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="71" priority="1" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="69" priority="50" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="51" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="67" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F46">
-    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="4" stopIfTrue="1">
-      <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6486,150 +6496,146 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:A49">
+    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
+      <formula>+#REF!="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B49">
+    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="17" stopIfTrue="1">
+      <formula>+#REF!="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C49">
+    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H49">
+    <cfRule type="expression" dxfId="64" priority="13" stopIfTrue="1">
+      <formula>+#REF!="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D49">
+    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E49">
+    <cfRule type="expression" dxfId="62" priority="10" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F49">
+    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G49">
+    <cfRule type="expression" dxfId="60" priority="8" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H49">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I49">
+    <cfRule type="expression" dxfId="58" priority="5" stopIfTrue="1">
+      <formula>$R3="i"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="14" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J49">
+    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
+      <formula>$S3="i"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K49">
+    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
+      <formula>$T3="i"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L49">
+    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+      <formula>$U3="i"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
+      <formula>$B3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="54" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="53" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="51" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="48" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="45" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="44" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
-      <formula>+#REF!="p"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
-      <formula>+#REF!="p"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="39" priority="16" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
-      <formula>+#REF!="p"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
-      <formula>$R3="i"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
-      <formula>$S3="i"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
-      <formula>$T3="i"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
-      <formula>$B3&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
-      <formula>$U3="i"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6648,7 +6654,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10138,98 +10144,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="38" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="36" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF6BC5-D6E4-FB4E-B70F-447290AABD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E778549-509C-AD4C-A0F5-1FB8C005CC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16360" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
@@ -404,16 +404,16 @@
     <t>%_Asesores_con_pol_Pagada_GMM</t>
   </si>
   <si>
-    <t>Recibo_Inicial_Pagado</t>
-  </si>
-  <si>
     <t>Pólizas_Pagado</t>
   </si>
   <si>
     <t>Pólizas_Pendiente</t>
   </si>
   <si>
-    <t>Recibo_Inicial_Pendiente</t>
+    <t>Total_Pagado</t>
+  </si>
+  <si>
+    <t>Total_Pendiente</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,85 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="152">
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="hair">
@@ -3106,57 +3184,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148">
   <autoFilter ref="A2:F47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="139"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Recibo_Inicial_Pendiente" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Total_Pagado" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total_Pendiente" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="131" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="130" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="129" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="128" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="127" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="126" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="125" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="124" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="123"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="137" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="136" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="135" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="134" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="133" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="132" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="131" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="130" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="129"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="112"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="110"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="109"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="118"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="116"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="115"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3181,26 +3259,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="100" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="96" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="106" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="104"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="102" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -3547,7 +3625,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3581,13 +3659,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>124</v>
@@ -3605,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>104105.63</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>225651.58</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -3626,13 +3704,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>61004.82</v>
+        <v>74359.210000000006</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>72844.100000000006</v>
+        <v>108385.48</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -3647,13 +3725,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>3018.58</v>
+        <v>71251.41</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>37782.11</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -3668,13 +3746,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>3273.67</v>
+        <v>52982.99</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>21966.880000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3688,13 +3766,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>7184.56</v>
+        <v>40909.81</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>15064.07</v>
+        <v>204839.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3708,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>27079.33</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>801637.94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3728,13 +3806,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>1584.48</v>
+        <v>26005.4</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>2435.65</v>
+        <v>99845.58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3748,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>22054.400000000001</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>75875.25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3768,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>20077.400000000001</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>42810.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3788,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>14887.38</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>14887.38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3808,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>11945.29</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>66315.25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3828,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>11532.26</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>21932.89</v>
+        <v>58958.98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3848,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>9688.8700000000008</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>24855.21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3868,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>9281.48</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>34668.69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>8821.32</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>11272.92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>7991.52</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>55306.96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>-6.95</v>
+        <v>7460.84</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>15352.07</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3948,13 +4026,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>1809.19</v>
+        <v>6716.14</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>43873.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>6639.64</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>8336.92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>6196.74</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -4008,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>5895.02</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>36777.25</v>
+        <v>88859</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4028,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>5745.69</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>5138.51</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>10277.030000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4068,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>4663.49</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>3167.47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -4088,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>4487.59</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>38209.879999999997</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>4192.72</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>23946.42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4128,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>4095.39</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>63114.42</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4148,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>2561.44</v>
+        <v>3993.98</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>5165.8599999999997</v>
+        <v>26539.81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4168,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>3904.72</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>24131.27</v>
+        <v>49420.01</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4188,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>3151.08</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -4208,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>2852.69</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>1575.88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4228,13 +4306,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>2833.03</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>4506.84</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4248,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>2133.91</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -4268,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>1721.93</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>22676.73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4288,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>0</v>
+        <v>1712.03</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -4308,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>1345.8</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>4779.2299999999996</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4328,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>1297.97</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>32930.35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4348,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>1269.82</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>49303.64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4368,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>0</v>
+        <v>651.19000000000005</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>46859.360000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4394,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>18020.830000000002</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4414,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>127958.49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4434,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
+        <v>10092.959999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4454,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>15118.28</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4474,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>12739.06</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4488,38 +4566,64 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="89" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="52" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="53" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="84" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="55" stopIfTrue="1">
       <formula>$Q96=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="56" stopIfTrue="1">
       <formula>$Q95=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="82" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="73" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="74" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="71" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="72" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A46">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B46">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C46">
     <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
@@ -4527,60 +4631,47 @@
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="E4:E46">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D46">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F46">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D46">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F46">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6497,145 +6588,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="64" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="62" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="60" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="58" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
       <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
       <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
       <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
       <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10144,98 +10235,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="38" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="36" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21">
+    <cfRule type="expression" dxfId="41" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E778549-509C-AD4C-A0F5-1FB8C005CC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163DCCA-D7B4-584C-8378-98534862C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16360" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
@@ -797,6 +797,45 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -824,84 +863,6 @@
           <color indexed="64"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
           <color indexed="64"/>
         </right>
         <top style="hair">
@@ -1950,6 +1911,22 @@
     </dxf>
     <dxf>
       <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1960,6 +1937,29 @@
         <left style="hair">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="hair">
           <color indexed="64"/>
         </right>
@@ -1973,13 +1973,13 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top style="hair">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -2002,7 +2002,7 @@
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="hair">
+        <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -2012,6 +2012,22 @@
     </dxf>
     <dxf>
       <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2019,7 +2035,23 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -2035,7 +2067,14 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -2051,6 +2090,22 @@
     </dxf>
     <dxf>
       <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2058,7 +2113,7 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
@@ -2074,13 +2129,27 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="hair">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top style="hair">
           <color indexed="64"/>
         </top>
         <bottom style="hair">
@@ -2090,6 +2159,38 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2116,107 +2217,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3625,7 +3625,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3644,7 +3644,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="36">
-        <v>46073</v>
+        <v>46076</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
@@ -3686,10 +3686,10 @@
         <v>104105.63</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>225651.58</v>
+        <v>285524.36</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -3707,10 +3707,10 @@
         <v>74359.210000000006</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>108385.48</v>
+        <v>173883</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -3763,16 +3763,16 @@
         <v>2856</v>
       </c>
       <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>52275.28</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>40909.81</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
       <c r="F7" s="4">
-        <v>204839.8</v>
+        <v>193474.33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>27079.33</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>801637.94</v>
@@ -3809,10 +3809,10 @@
         <v>26005.4</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>99845.58</v>
+        <v>122577.57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3829,10 +3829,10 @@
         <v>22054.400000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>75875.25</v>
+        <v>99901.29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3877,7 +3877,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>2692</v>
@@ -3886,18 +3886,18 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>11945.29</v>
+        <v>14217.61</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>66315.25</v>
+        <v>113740.88</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>2692</v>
@@ -3906,38 +3906,38 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>11532.26</v>
+        <v>11945.29</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>58958.98</v>
+        <v>66315.25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>9688.8700000000008</v>
+        <v>11532.26</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>24855.21</v>
+        <v>58958.98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <v>2043</v>
@@ -3946,18 +3946,18 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>9281.48</v>
+        <v>9688.8700000000008</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>34668.69</v>
+        <v>24855.21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>2043</v>
@@ -3966,38 +3966,38 @@
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>8821.32</v>
+        <v>9281.48</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>11272.92</v>
+        <v>34668.69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>7991.52</v>
+        <v>8821.32</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>55306.96</v>
+        <v>11272.92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
         <v>2692</v>
@@ -4006,78 +4006,78 @@
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>7460.84</v>
+        <v>7991.52</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>15352.07</v>
+        <v>55306.96</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>6716.14</v>
+        <v>7460.84</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>43873.2</v>
+        <v>15352.07</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>2856</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>6639.64</v>
+        <v>6716.14</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>8336.92</v>
+        <v>43873.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>6196.74</v>
+        <v>6639.64</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>8336.92</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
         <v>2692</v>
@@ -4086,18 +4086,18 @@
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>5895.02</v>
+        <v>6463.82</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>88859</v>
+        <v>60745.99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
         <v>2043</v>
@@ -4106,18 +4106,18 @@
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>5745.69</v>
+        <v>6196.74</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>22496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
         <v>2043</v>
@@ -4126,58 +4126,58 @@
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>5138.51</v>
+        <v>6125.03</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>10277.030000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>4663.49</v>
+        <v>5895.02</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>3167.47</v>
+        <v>87131.78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>4487.59</v>
+        <v>5745.69</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>38209.879999999997</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2">
         <v>2043</v>
@@ -4186,78 +4186,78 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>4192.72</v>
+        <v>5620.13</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>23946.42</v>
+        <v>47704.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>4095.39</v>
+        <v>5138.51</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>63114.42</v>
+        <v>10277.030000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>3993.98</v>
+        <v>4663.49</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>26539.81</v>
+        <v>3167.47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>3904.72</v>
+        <v>4487.59</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>49420.01</v>
+        <v>38209.879999999997</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2">
         <v>2043</v>
@@ -4266,38 +4266,38 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>3151.08</v>
+        <v>4192.72</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>23946.42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>2852.69</v>
+        <v>3993.98</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>1575.88</v>
+        <v>26539.81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
         <v>2043</v>
@@ -4306,18 +4306,18 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>2833.03</v>
+        <v>3151.08</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>4506.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>2043</v>
@@ -4326,18 +4326,18 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>2133.91</v>
+        <v>2852.69</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>5102.97</v>
+        <v>1575.88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>2043</v>
@@ -4346,38 +4346,38 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <v>1721.93</v>
+        <v>2833.03</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>22676.73</v>
+        <v>4506.84</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>1712.03</v>
+        <v>2133.91</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>5102.97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2">
         <v>2043</v>
@@ -4386,58 +4386,58 @@
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>1345.8</v>
+        <v>1721.93</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>4779.2299999999996</v>
+        <v>22676.73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>1297.97</v>
+        <v>1712.03</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>32930.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>1269.82</v>
+        <v>1297.97</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>49303.64</v>
+        <v>32930.35</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2">
         <v>2043</v>
@@ -4446,18 +4446,18 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>651.19000000000005</v>
+        <v>1269.82</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>46859.360000000001</v>
+        <v>49303.64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2">
         <v>2043</v>
@@ -4466,21 +4466,21 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <v>0</v>
+        <v>651.19000000000005</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4">
-        <v>18020.830000000002</v>
+        <v>61733.46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>127958.49</v>
+        <v>18020.830000000002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4566,90 +4566,90 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="95" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="71" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="70" stopIfTrue="1">
       <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="53" stopIfTrue="1">
-      <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="90" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="74" stopIfTrue="1">
+      <formula>$Q95=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="73" stopIfTrue="1">
       <formula>$Q96=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="56" stopIfTrue="1">
-      <formula>$Q95=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="88" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="91" stopIfTrue="1">
       <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
-      <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="80" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="89" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="90" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C46">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D46">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D46">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
@@ -4657,7 +4657,7 @@
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="E3">
     <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
@@ -6588,145 +6588,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="75" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="73" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="71" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="70" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="69" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="66" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="65" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="64" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
       <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
       <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="1" stopIfTrue="1">
       <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="56" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="55" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="54" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="52" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="51" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="49" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="48" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="46" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="45" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10235,98 +10235,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="44" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="23">
+    <cfRule type="expression" dxfId="40" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="21">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="36" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163DCCA-D7B4-584C-8378-98534862C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0820E68-4E4A-7F47-AFAD-00AE5016E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16360" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
@@ -755,241 +755,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="152">
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="134">
     <dxf>
       <border>
         <left style="hair">
@@ -3184,57 +2950,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
   <autoFilter ref="A2:F47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="145"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Total_Pagado" dataDxfId="144"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="143"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total_Pendiente" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="127"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Total_Pagado" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="125"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total_Pendiente" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="137" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="136" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="135" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="134" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="133" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="132" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="131" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="130" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="129"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="119" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="118" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="117" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="116" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="115" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="114" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="113" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="112" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="118"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="117"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="116"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="115"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3259,26 +3025,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="111"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="106" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="104"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="102" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="93"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="88" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="84" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -3625,7 +3391,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3789,10 +3555,10 @@
         <v>27079.33</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>801637.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4565,114 +4331,114 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A46">
+    <cfRule type="expression" dxfId="79" priority="17" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="95" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="71" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="70" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="75" priority="15" stopIfTrue="1">
+      <formula>$S$34=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B46">
+    <cfRule type="expression" dxfId="74" priority="13" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="14" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="90" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
       <formula>$Q95=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
       <formula>$Q96=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="91" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="77" priority="89" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="90" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>$S$34=1</formula>
+  <conditionalFormatting sqref="C4:C46">
+    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="10" stopIfTrue="1">
+      <formula>$S4=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C46">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="65" priority="9" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D46">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="8" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="7" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="62" priority="6" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$S3=1</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="59" priority="89" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="90" stopIfTrue="1">
+      <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F46">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$S$34=1</formula>
+    <cfRule type="expression" dxfId="55" priority="1" stopIfTrue="1">
+      <formula>$S4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6588,145 +6354,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="72" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="70" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="67" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="66" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="63" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="62" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
       <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
       <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="55" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
       <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="53" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="52" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="51" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="46" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="45" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="43" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="42" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10235,98 +10001,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="41" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="39" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="29" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0820E68-4E4A-7F47-AFAD-00AE5016E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5E65F-7DC6-6344-ACA0-C556E7D831CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16360" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
   <sheets>
     <sheet name="pagado_pendiente" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
   <si>
     <t>Asesor</t>
   </si>
@@ -404,16 +404,28 @@
     <t>%_Asesores_con_pol_Pagada_GMM</t>
   </si>
   <si>
-    <t>Pólizas_Pagado</t>
-  </si>
-  <si>
-    <t>Pólizas_Pendiente</t>
-  </si>
-  <si>
-    <t>Total_Pagado</t>
-  </si>
-  <si>
-    <t>Total_Pendiente</t>
+    <t>Pólizas-Pagadas</t>
+  </si>
+  <si>
+    <t>Recibo_Inicial_Pagado</t>
+  </si>
+  <si>
+    <t>Total _Prima_Pagada</t>
+  </si>
+  <si>
+    <t>Pólizas_Pendinetes</t>
+  </si>
+  <si>
+    <t>Recibo_Inicial_Pendiente</t>
+  </si>
+  <si>
+    <t>Recibo_Ordinario_Pendiente</t>
+  </si>
+  <si>
+    <t>Recibo_Ordinario_Pagado</t>
+  </si>
+  <si>
+    <t>Total _Prima_Pendiente</t>
   </si>
 </sst>
 </file>
@@ -624,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -642,16 +654,10 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -750,12 +756,240 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="134">
+  <dxfs count="149">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="hair">
@@ -2950,57 +3184,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:F47" totalsRowShown="0" headerRowDxfId="133" dataDxfId="131" headerRowBorderDxfId="132" tableBorderDxfId="130">
-  <autoFilter ref="A2:F47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas_Pagado" dataDxfId="127"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Total_Pagado" dataDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Pólizas_Pendiente" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total_Pendiente" dataDxfId="124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:J47" totalsRowShown="0" headerRowDxfId="148" dataDxfId="146" headerRowBorderDxfId="147" tableBorderDxfId="145">
+  <autoFilter ref="A2:J47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
+  <tableColumns count="10">
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas-Pagadas" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Recibo_Ordinario_Pagado" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total _Prima_Pagada" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{E28A327A-321D-AB4B-A3E4-B84B36B11129}" name="Pólizas_Pendinetes" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2AAC82E1-6CC3-F045-B587-E5A490F632BF}" name="Recibo_Inicial_Pendiente" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1857825C-6430-7844-B09E-A33AFAEE6854}" name="Recibo_Ordinario_Pendiente" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{48B56B42-A49D-2E42-8271-5CB59AB26C60}" name="Total _Prima_Pendiente" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="119" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="118" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="117" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="116" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="115" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="114" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="113" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="112" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="111"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="134" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="133" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="132" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="131" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="130" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="129" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="128" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="127" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="99"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="118"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="113"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="112"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3025,26 +3263,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="88" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="84" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="103" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="99" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -3388,10 +3626,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,44 +3639,55 @@
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="36">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="33">
         <v>46076</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3449,17 +3698,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>104105.63</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="4">
+        <v>104105.63</v>
+      </c>
+      <c r="G3" s="35">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
+        <v>27098.19</v>
+      </c>
+      <c r="I3" s="4">
+        <v>258426.17</v>
+      </c>
+      <c r="J3" s="4">
         <v>285524.36</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3470,17 +3730,28 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
+        <v>61004.82</v>
+      </c>
+      <c r="E4" s="4">
+        <v>13354.39</v>
+      </c>
+      <c r="F4" s="4">
         <v>74359.210000000006</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="36">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
+        <v>138341.62</v>
+      </c>
+      <c r="I4" s="4">
+        <v>35541.379999999997</v>
+      </c>
+      <c r="J4" s="4">
         <v>173883</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3491,17 +3762,28 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
+        <v>3018.58</v>
+      </c>
+      <c r="E5" s="4">
+        <v>68232.83</v>
+      </c>
+      <c r="F5" s="4">
         <v>71251.41</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>37782.11</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="4">
+        <v>37782.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -3512,16 +3794,28 @@
         <v>2</v>
       </c>
       <c r="D6" s="4">
+        <v>3273.67</v>
+      </c>
+      <c r="E6" s="4">
+        <v>49709.32</v>
+      </c>
+      <c r="F6" s="4">
         <v>52982.99</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>21966.880000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="4">
+        <v>21966.880000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3532,16 +3826,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
+        <v>18550.03</v>
+      </c>
+      <c r="E7" s="4">
+        <v>33725.25</v>
+      </c>
+      <c r="F7" s="4">
         <v>52275.28</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="36">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
+        <v>3698.6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>189775.73</v>
+      </c>
+      <c r="J7" s="4">
         <v>193474.33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3552,16 +3858,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>27079.33</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27079.33</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>129008.51</v>
+      </c>
+      <c r="J8" s="4">
+        <v>129008.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3572,16 +3890,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="4">
+        <v>1584.48</v>
+      </c>
+      <c r="E9" s="4">
+        <v>24420.92</v>
+      </c>
+      <c r="F9" s="4">
         <v>26005.4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="36">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
+        <v>8118.65</v>
+      </c>
+      <c r="I9" s="4">
+        <v>114458.92</v>
+      </c>
+      <c r="J9" s="4">
         <v>122577.57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -3592,16 +3922,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>22054.400000000001</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
       <c r="F10" s="4">
+        <v>22054.400000000001</v>
+      </c>
+      <c r="G10" s="36">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>24026.04</v>
+      </c>
+      <c r="I10" s="4">
+        <v>75875.25</v>
+      </c>
+      <c r="J10" s="4">
         <v>99901.29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3612,16 +3954,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>20077.400000000001</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
       <c r="F11" s="4">
+        <v>20077.400000000001</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>42810.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="4">
+        <v>42810.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -3632,16 +3986,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>14887.38</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
       </c>
       <c r="F12" s="4">
         <v>14887.38</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>14887.38</v>
+      </c>
+      <c r="J12" s="4">
+        <v>14887.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -3652,16 +4018,28 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>14217.61</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
       <c r="F13" s="4">
+        <v>14217.61</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>113740.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="4">
+        <v>113740.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -3672,16 +4050,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <v>11945.29</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="4">
+        <v>11945.29</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <v>66315.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="4">
+        <v>66315.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -3692,16 +4082,28 @@
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>11532.26</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="4">
+        <v>11532.26</v>
+      </c>
+      <c r="G15" s="36">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="H15" s="4">
+        <v>21932.89</v>
+      </c>
+      <c r="I15" s="4">
+        <v>37026.089999999997</v>
+      </c>
+      <c r="J15" s="4">
         <v>58958.98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3712,16 +4114,28 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>9688.8700000000008</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
       <c r="F16" s="4">
+        <v>9688.8700000000008</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>24855.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J16" s="4">
+        <v>24855.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3732,16 +4146,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <v>9281.48</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="4">
+        <v>9281.48</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>34668.69</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J17" s="4">
+        <v>34668.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3752,16 +4178,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>8821.32</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="4">
+        <v>8821.32</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>11272.92</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J18" s="4">
+        <v>11272.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -3772,16 +4210,28 @@
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>7991.52</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
       <c r="F19" s="4">
+        <v>7991.52</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>55306.96</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J19" s="4">
+        <v>55306.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -3792,16 +4242,28 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <v>-6.95</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7467.79</v>
+      </c>
+      <c r="F20" s="4">
         <v>7460.84</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>15352.07</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J20" s="4">
+        <v>15352.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -3812,16 +4274,28 @@
         <v>1</v>
       </c>
       <c r="D21" s="4">
+        <v>1809.19</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4906.95</v>
+      </c>
+      <c r="F21" s="4">
         <v>6716.14</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="G21" s="36">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>43873.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J21" s="4">
+        <v>43873.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -3832,16 +4306,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>6639.64</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="4">
+        <v>6639.64</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>8336.92</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J22" s="4">
+        <v>8336.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3852,16 +4338,28 @@
         <v>0</v>
       </c>
       <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>6463.82</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="4">
+        <v>6463.82</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>60745.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J23" s="4">
+        <v>60745.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -3872,16 +4370,28 @@
         <v>0</v>
       </c>
       <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <v>6196.74</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6196.74</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -3892,16 +4402,28 @@
         <v>0</v>
       </c>
       <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <v>6125.03</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
       <c r="F25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6125.03</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -3912,16 +4434,28 @@
         <v>0</v>
       </c>
       <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <v>5895.02</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
       <c r="F26" s="4">
+        <v>5895.02</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>36777.25</v>
+      </c>
+      <c r="I26" s="4">
+        <v>50354.53</v>
+      </c>
+      <c r="J26" s="4">
         <v>87131.78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -3932,16 +4466,28 @@
         <v>0</v>
       </c>
       <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
         <v>5745.69</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="4">
+        <v>5745.69</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>22496</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J27" s="4">
+        <v>22496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3952,16 +4498,28 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
         <v>5620.13</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
       <c r="F28" s="4">
+        <v>5620.13</v>
+      </c>
+      <c r="G28" s="36">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>24131.27</v>
+      </c>
+      <c r="I28" s="4">
+        <v>23573.33</v>
+      </c>
+      <c r="J28" s="4">
         <v>47704.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -3972,16 +4530,28 @@
         <v>0</v>
       </c>
       <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
         <v>5138.51</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="4">
+        <v>5138.51</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
         <v>10277.030000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J29" s="4">
+        <v>10277.030000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3992,16 +4562,28 @@
         <v>0</v>
       </c>
       <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>4663.49</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
       <c r="F30" s="4">
+        <v>4663.49</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
         <v>3167.47</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J30" s="4">
+        <v>3167.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -4012,16 +4594,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <v>4487.59</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
       <c r="F31" s="4">
+        <v>4487.59</v>
+      </c>
+      <c r="G31" s="36">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>38209.879999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J31" s="4">
+        <v>38209.879999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -4032,16 +4626,28 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
         <v>4192.72</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="4">
+        <v>4192.72</v>
+      </c>
+      <c r="G32" s="36">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
         <v>23946.42</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J32" s="4">
+        <v>23946.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -4052,16 +4658,28 @@
         <v>1</v>
       </c>
       <c r="D33" s="4">
+        <v>2561.44</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1432.54</v>
+      </c>
+      <c r="F33" s="4">
         <v>3993.98</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="G33" s="36">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5165.8599999999997</v>
+      </c>
+      <c r="I33" s="4">
+        <v>21373.95</v>
+      </c>
+      <c r="J33" s="4">
         <v>26539.81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -4072,16 +4690,28 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
         <v>3151.08</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
       <c r="F34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3151.08</v>
+      </c>
+      <c r="G34" s="36">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -4092,16 +4722,28 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
         <v>2852.69</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="4">
+        <v>2852.69</v>
+      </c>
+      <c r="G35" s="36">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
         <v>1575.88</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J35" s="4">
+        <v>1575.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -4112,16 +4754,28 @@
         <v>0</v>
       </c>
       <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
         <v>2833.03</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
       <c r="F36" s="4">
+        <v>2833.03</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
         <v>4506.84</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J36" s="4">
+        <v>4506.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -4132,16 +4786,28 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
         <v>2133.91</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
       <c r="F37" s="4">
+        <v>2133.91</v>
+      </c>
+      <c r="G37" s="36">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
         <v>5102.97</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>5102.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -4152,16 +4818,28 @@
         <v>0</v>
       </c>
       <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
         <v>1721.93</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
       <c r="F38" s="4">
+        <v>1721.93</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>22676.73</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J38" s="4">
+        <v>22676.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -4172,16 +4850,28 @@
         <v>0</v>
       </c>
       <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
         <v>1712.03</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
       <c r="F39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1712.03</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -4192,16 +4882,28 @@
         <v>0</v>
       </c>
       <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
         <v>1297.97</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
       <c r="F40" s="4">
+        <v>1297.97</v>
+      </c>
+      <c r="G40" s="36">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
         <v>32930.35</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J40" s="4">
+        <v>32930.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -4212,16 +4914,28 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
         <v>1269.82</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="4">
+        <v>1269.82</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
         <v>49303.64</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J41" s="4">
+        <v>49303.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -4232,16 +4946,28 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
         <v>651.19000000000005</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
       <c r="F42" s="4">
+        <v>651.19000000000005</v>
+      </c>
+      <c r="G42" s="36">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>14874.1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>46859.360000000001</v>
+      </c>
+      <c r="J42" s="4">
         <v>61733.46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -4254,14 +4980,26 @@
       <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="36">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
         <v>18020.830000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J43" s="4">
+        <v>18020.830000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
@@ -4274,14 +5012,26 @@
       <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>0</v>
       </c>
       <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="36">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
         <v>10092.959999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J44" s="4">
+        <v>10092.959999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -4294,14 +5044,26 @@
       <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="36">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
         <v>15118.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J45" s="4">
+        <v>15118.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -4314,131 +5076,142 @@
       <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>0</v>
       </c>
       <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="36">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
         <v>12739.06</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J46" s="4">
+        <v>12739.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="29" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="79" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="28" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="27" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="77" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="82" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="81" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="75" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="26" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="74" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="24" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="25" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
       <formula>$Q95=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="84" stopIfTrue="1">
       <formula>$Q96=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="103" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="102" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="68" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="74" priority="100" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="101" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G46">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I46 C4:E46">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F46 J4:J7 J9:J46">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C46">
-    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="10" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="65" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="C3:E3 H3:I3">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D46">
-    <cfRule type="expression" dxfId="64" priority="8" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="7" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="62" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F3 J3">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E46">
-    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
-      <formula>$S3=1</formula>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$S8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="59" priority="89" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="90" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
-      <formula>$S$34=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F46">
-    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1" stopIfTrue="1">
-      <formula>$S4=1</formula>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$S7=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4476,2023 +5249,2023 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="37">
+      <c r="A1" s="34">
         <v>46071</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="56" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="B3" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
         <v>3904.72</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>2870</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="N3" s="10">
-        <v>2043</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="I3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="7">
+        <v>2043</v>
+      </c>
+      <c r="O3" s="7">
         <v>27</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="7">
         <v>2</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="8">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="7">
         <v>6</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="8">
         <v>0.22220000000000001</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="7">
         <v>2</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="8">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="7">
         <v>5</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="8">
         <v>0.1852</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="9">
         <v>351124.3</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="9">
         <v>96470</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="B4" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
         <v>4663.49</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>1263</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="10">
+      <c r="I4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
         <v>2511</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="7">
         <v>4</v>
       </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="12">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="B5" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
         <v>9688.8700000000008</v>
       </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="10">
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="7">
         <v>2692</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="7">
         <v>9</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="7">
         <v>2</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="8">
         <v>0.22220000000000001</v>
       </c>
-      <c r="R5" s="10">
-        <v>1</v>
-      </c>
-      <c r="S5" s="11">
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
         <v>0.1111</v>
       </c>
-      <c r="T5" s="10">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
         <v>0.1111</v>
       </c>
-      <c r="V5" s="10">
-        <v>1</v>
-      </c>
-      <c r="W5" s="11">
+      <c r="V5" s="7">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
         <v>0.1111</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="9">
         <v>64539.13</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="9">
         <v>46429</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="B6" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
         <v>1269.82</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>2325</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="10">
+      <c r="I6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="7">
         <v>2856</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="7">
         <v>7</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="7">
         <v>2</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="8">
         <v>0.28570000000000001</v>
       </c>
-      <c r="R6" s="10">
-        <v>1</v>
-      </c>
-      <c r="S6" s="11">
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
         <v>0.1429</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="7">
         <v>2</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="8">
         <v>0.28570000000000001</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="7">
         <v>2</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="8">
         <v>0.28570000000000001</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="9">
         <v>80542.61</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="9">
         <v>25505</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>2692</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
         <v>24293.37</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <v>3262</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>2692</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
         <v>11532.26</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>1680</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="B9" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
         <v>9281.48</v>
       </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="B10" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
         <v>3279.92</v>
       </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17" t="s">
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
+      <c r="B11" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
         <v>27079.33</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>2160</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="I11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>2692</v>
       </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <v>3914.01</v>
       </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>2692</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
         <v>7460.84</v>
       </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17" t="s">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="B14" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
         <v>1329.68</v>
       </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="17" t="s">
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="B15" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
         <v>1345.8</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>1558</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="17" t="s">
+      <c r="I15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>2856</v>
       </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
+      <c r="B17" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
         <v>2833.03</v>
       </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17" t="s">
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
+      <c r="B18" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
         <v>7287.37</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="13">
         <v>29054</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="17"/>
+      <c r="I18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>2856</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
         <v>2</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
         <v>40909.81</v>
       </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17" t="s">
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>2692</v>
       </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="17"/>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>2692</v>
       </c>
-      <c r="C21" s="15">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
         <v>11945.29</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="13">
         <v>41487</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="17"/>
+      <c r="I21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>2856</v>
       </c>
-      <c r="C22" s="15">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
         <v>1712.03</v>
       </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="17" t="s">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="B23" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="16">
         <v>2856</v>
       </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
         <v>6639.64</v>
       </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="17" t="s">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="17" t="s">
+      <c r="B25" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>2692</v>
       </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
         <v>1297.97</v>
       </c>
-      <c r="H26" s="16">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <v>2856</v>
       </c>
-      <c r="C27" s="15">
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
         <v>4487.59</v>
       </c>
-      <c r="H27" s="16">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <v>2692</v>
       </c>
-      <c r="C28" s="15">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
         <v>4095.39</v>
       </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17" t="s">
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <v>2692</v>
       </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="17" t="s">
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <v>2856</v>
       </c>
-      <c r="C30" s="15">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
         <v>20077.400000000001</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="13">
         <v>7755</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="I30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C31" s="15">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
+      <c r="B31" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
         <v>651.19000000000005</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="13">
         <v>7274</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="I31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="16">
         <v>2856</v>
       </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
         <v>6716.14</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="13">
         <v>17750</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C33" s="12">
         <v>2</v>
       </c>
-      <c r="D33" s="15">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
         <v>2</v>
       </c>
-      <c r="F33" s="15">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
         <v>71251.41</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="13">
         <v>24606</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="16">
         <v>2511</v>
       </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="16">
         <v>2511</v>
       </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="17" t="s">
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C36" s="15">
-        <v>0</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
+      <c r="B36" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
         <v>1721.93</v>
       </c>
-      <c r="H36" s="16">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="17" t="s">
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="16">
         <v>2511</v>
       </c>
-      <c r="C37" s="15">
-        <v>0</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C38" s="15">
-        <v>0</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16">
+      <c r="B38" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
         <v>22054.400000000001</v>
       </c>
-      <c r="H38" s="16">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C39" s="15">
-        <v>0</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="B39" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="16">
         <v>2511</v>
       </c>
-      <c r="C40" s="15">
-        <v>0</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C41" s="15">
-        <v>0</v>
-      </c>
-      <c r="D41" s="15">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16">
+      <c r="B41" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
         <v>14887.38</v>
       </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="17" t="s">
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C42" s="15">
-        <v>0</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="B42" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
         <v>2</v>
       </c>
-      <c r="E42" s="15">
-        <v>0</v>
-      </c>
-      <c r="F42" s="15">
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
         <v>2</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="13">
         <v>101140.27</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="13">
         <v>18495</v>
       </c>
-      <c r="I42" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="I42" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C43" s="15">
-        <v>0</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
+      <c r="B43" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
         <v>4192.72</v>
       </c>
-      <c r="H43" s="16">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C44" s="15">
-        <v>0</v>
-      </c>
-      <c r="D44" s="15">
-        <v>0</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="16">
+      <c r="B44" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
         <v>5138.51</v>
       </c>
-      <c r="H44" s="16">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="17" t="s">
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C45" s="15">
-        <v>1</v>
-      </c>
-      <c r="D45" s="15">
-        <v>0</v>
-      </c>
-      <c r="E45" s="15">
-        <v>1</v>
-      </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
+      <c r="B45" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
         <v>49792.33</v>
       </c>
-      <c r="H45" s="16">
-        <v>0</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17" t="s">
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C46" s="15">
-        <v>0</v>
-      </c>
-      <c r="D46" s="15">
-        <v>0</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0</v>
-      </c>
-      <c r="F46" s="15">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
+      <c r="B46" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
         <v>2133.91</v>
       </c>
-      <c r="H46" s="16">
-        <v>0</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C47" s="15">
-        <v>0</v>
-      </c>
-      <c r="D47" s="15">
-        <v>0</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L47" s="17" t="s">
+      <c r="B47" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C48" s="15">
-        <v>0</v>
-      </c>
-      <c r="D48" s="15">
-        <v>1</v>
-      </c>
-      <c r="E48" s="15">
-        <v>0</v>
-      </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16">
+      <c r="B48" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
         <v>6196.74</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="13">
         <v>5340</v>
       </c>
-      <c r="I48" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
+      <c r="I48" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="19">
-        <v>2043</v>
-      </c>
-      <c r="C49" s="15">
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="B49" s="16">
+        <v>2043</v>
+      </c>
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
         <v>1525</v>
       </c>
-      <c r="I49" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L49" s="17" t="s">
+      <c r="I49" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" s="14" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="54" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="52" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="5" stopIfTrue="1">
       <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
       <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
       <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
       <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="33" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6527,7 +7300,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="37">
+      <c r="A1" s="34">
         <v>46071</v>
       </c>
     </row>
@@ -7995,2104 +8768,2104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37">
+      <c r="A1" s="34">
         <v>46066</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C3" s="24">
         <v>2</v>
       </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
         <v>-1</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <v>-0.5</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="24">
         <v>96.36</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="24">
         <v>66.58</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="24">
         <v>-29.78</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="25">
         <v>-0.309</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="B4" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
         <v>22.53</v>
       </c>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
         <v>-22.53</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="25">
         <v>-1</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="22">
         <v>78</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <v>20</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="22">
         <v>-58</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="23">
         <v>-0.74358974358974361</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="22">
         <v>3065.09</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="22">
         <v>1357.4</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="22">
         <v>-1707.69</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="23">
         <v>-0.55714187837877516</v>
       </c>
-      <c r="U4" s="25">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>0</v>
-      </c>
-      <c r="W4" s="25">
+      <c r="U4" s="22">
+        <v>1</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
         <v>-1</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="23">
         <v>-1</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="22">
         <v>141.97</v>
       </c>
-      <c r="Z4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="25">
+      <c r="Z4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
         <v>-141.97</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="23">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>2511</v>
       </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>-1</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>-1</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="24">
         <v>23.41</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="24">
         <v>5.35</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="24">
         <v>-18.059999999999999</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="25">
         <v>-0.77149999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="B6" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
         <v>1.85</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>2.75</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>0.9</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="25">
         <v>0.48649999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <v>2511</v>
       </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
         <v>8.8699999999999992</v>
       </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
+      <c r="H7" s="24">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C8" s="24">
         <v>6</v>
       </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
         <v>-5</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>-0.83330000000000004</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>415.45</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>32.630000000000003</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>-382.82</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="25">
         <v>-0.92149999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C9" s="24">
         <v>4</v>
       </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
         <v>-4</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>-1</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="24">
         <v>74.97</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="24">
         <v>15.71</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>-59.26</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="25">
         <v>-0.79039999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>2511</v>
       </c>
-      <c r="C10" s="27">
-        <v>0</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
         <v>21.7</v>
       </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
         <v>-21.7</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="B11" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
         <v>2.87</v>
       </c>
-      <c r="H11" s="27">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27">
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
         <v>-2.87</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28">
-        <v>0</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="B12" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
         <v>8.1</v>
       </c>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
         <v>-8.1</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C13" s="24">
         <v>6</v>
       </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
         <v>-5</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="25">
         <v>-0.83330000000000004</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="24">
         <v>571.64</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="24">
         <v>214.56</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="24">
         <v>-357.08</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="25">
         <v>-0.62470000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="B14" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
         <v>-1</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>-1</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="24">
         <v>22.54</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="24">
         <v>8.39</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="24">
         <v>-14.15</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="25">
         <v>-0.62780000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="B15" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
         <v>4.34</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="24">
         <v>10.28</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="24">
         <v>5.94</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="25">
         <v>1.3687</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C16" s="24">
         <v>9</v>
       </c>
-      <c r="D16" s="27">
-        <v>1</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
         <v>-8</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <v>-0.88890000000000002</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <v>259.25</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="24">
         <v>95.57</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="24">
         <v>-163.68</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="25">
         <v>-0.63139999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1</v>
-      </c>
-      <c r="E17" s="27">
-        <v>1</v>
-      </c>
-      <c r="F17" s="28">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
+      <c r="B17" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
         <v>7.7</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="24">
         <v>53.11</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="24">
         <v>45.41</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="25">
         <v>5.8974000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
+      <c r="B18" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24">
         <v>11.23</v>
       </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="27">
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
         <v>-11.23</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1</v>
-      </c>
-      <c r="D19" s="27">
-        <v>1</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="B19" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
         <v>5.81</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="24">
         <v>10.119999999999999</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="25">
         <v>0.74180000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="B20" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
         <v>5.42</v>
       </c>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
         <v>-5.42</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
+      <c r="B21" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
+      <c r="H21" s="24">
+        <v>0</v>
+      </c>
+      <c r="I21" s="24">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C22" s="24">
         <v>3</v>
       </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
         <v>-3</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="25">
         <v>-1</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="24">
         <v>64.19</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="24">
         <v>37.909999999999997</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="24">
         <v>-26.28</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="25">
         <v>-0.40939999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C23" s="27">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
+      <c r="B23" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
         <v>23.02</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="24">
         <v>13.36</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="24">
         <v>-9.66</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="25">
         <v>-0.41959999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C24" s="27">
-        <v>0</v>
-      </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
+      <c r="B24" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
         <v>1.54</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="24">
         <v>9.69</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="24">
         <v>8.15</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="25">
         <v>5.2922000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="B25" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C25" s="24">
         <v>3</v>
       </c>
-      <c r="D25" s="27">
-        <v>0</v>
-      </c>
-      <c r="E25" s="27">
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
         <v>-3</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="25">
         <v>-1</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="24">
         <v>94.31</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="24">
         <v>22.44</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="24">
         <v>-71.87</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="25">
         <v>-0.7621</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <v>2692</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="24">
         <v>4</v>
       </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
         <v>-4</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <v>-1</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="24">
         <v>109.35</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="24">
         <v>48.44</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="24">
         <v>-60.91</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="25">
         <v>-0.55700000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="27">
         <v>2692</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="24">
         <v>3</v>
       </c>
-      <c r="D27" s="27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="27">
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
         <v>-2</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="25">
         <v>-0.66669999999999996</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="24">
         <v>121.85</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="24">
         <v>28.17</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="24">
         <v>-93.68</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="25">
         <v>-0.76880000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C28" s="27">
-        <v>0</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1</v>
-      </c>
-      <c r="E28" s="27">
-        <v>1</v>
-      </c>
-      <c r="F28" s="28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="27">
+      <c r="B28" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
+        <v>1</v>
+      </c>
+      <c r="G28" s="24">
         <v>20.77</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="24">
         <v>13.23</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="24">
         <v>-7.54</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="25">
         <v>-0.36299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C29" s="27">
-        <v>1</v>
-      </c>
-      <c r="D29" s="27">
-        <v>0</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="B29" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
         <v>-1</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="25">
         <v>-1</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="24">
         <v>54.74</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="24">
         <v>16.989999999999998</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="24">
         <v>-37.75</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="25">
         <v>-0.68959999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C30" s="27">
-        <v>1</v>
-      </c>
-      <c r="D30" s="27">
-        <v>0</v>
-      </c>
-      <c r="E30" s="27">
+      <c r="B30" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
         <v>-1</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="25">
         <v>-1</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="24">
         <v>25.02</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="24">
         <v>54.93</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="24">
         <v>29.91</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="25">
         <v>1.1954</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="27">
         <v>2692</v>
       </c>
-      <c r="C31" s="27">
-        <v>0</v>
-      </c>
-      <c r="D31" s="27">
-        <v>0</v>
-      </c>
-      <c r="E31" s="27">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="27">
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
         <v>2.19</v>
       </c>
-      <c r="H31" s="27">
-        <v>0</v>
-      </c>
-      <c r="I31" s="27">
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
+      <c r="I31" s="24">
         <v>-2.19</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="27">
         <v>2692</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="24">
         <v>5</v>
       </c>
-      <c r="D32" s="27">
-        <v>0</v>
-      </c>
-      <c r="E32" s="27">
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
         <v>-5</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="25">
         <v>-1</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="24">
         <v>250.75</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="24">
         <v>18.43</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="24">
         <v>-232.32</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="25">
         <v>-0.92649999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="27">
         <v>2692</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="24">
         <v>4</v>
       </c>
-      <c r="D33" s="27">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27">
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
         <v>-3</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="25">
         <v>-0.75</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <v>53.59</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="24">
         <v>110.71</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <v>57.12</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="25">
         <v>1.0659000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C34" s="27">
-        <v>0</v>
-      </c>
-      <c r="D34" s="27">
-        <v>0</v>
-      </c>
-      <c r="E34" s="27">
-        <v>0</v>
-      </c>
-      <c r="F34" s="28">
-        <v>0</v>
-      </c>
-      <c r="G34" s="27">
+      <c r="B34" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
         <v>42.18</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="24">
         <v>4.43</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="24">
         <v>-37.75</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="25">
         <v>-0.89500000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="27">
         <v>2692</v>
       </c>
-      <c r="C35" s="27">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="27">
+      <c r="C35" s="24">
+        <v>1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
         <v>-1</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>-1</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="24">
         <v>19.489999999999998</v>
       </c>
-      <c r="H35" s="27">
-        <v>0</v>
-      </c>
-      <c r="I35" s="27">
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
         <v>-19.489999999999998</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C36" s="27">
-        <v>1</v>
-      </c>
-      <c r="D36" s="27">
-        <v>0</v>
-      </c>
-      <c r="E36" s="27">
+      <c r="B36" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
         <v>-1</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="25">
         <v>-1</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="24">
         <v>18.02</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="24">
         <v>9.81</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="24">
         <v>-8.2100000000000009</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="25">
         <v>-0.4556</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C37" s="27">
-        <v>0</v>
-      </c>
-      <c r="D37" s="27">
-        <v>0</v>
-      </c>
-      <c r="E37" s="27">
-        <v>0</v>
-      </c>
-      <c r="F37" s="28">
-        <v>0</v>
-      </c>
-      <c r="G37" s="27">
+      <c r="B37" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
         <v>2.97</v>
       </c>
-      <c r="H37" s="27">
-        <v>0</v>
-      </c>
-      <c r="I37" s="27">
+      <c r="H37" s="24">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24">
         <v>-2.97</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="27">
         <v>2856</v>
       </c>
-      <c r="C38" s="27">
-        <v>0</v>
-      </c>
-      <c r="D38" s="27">
-        <v>0</v>
-      </c>
-      <c r="E38" s="27">
-        <v>0</v>
-      </c>
-      <c r="F38" s="28">
-        <v>0</v>
-      </c>
-      <c r="G38" s="27">
+      <c r="C38" s="24">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0</v>
+      </c>
+      <c r="G38" s="24">
         <v>19.25</v>
       </c>
-      <c r="H38" s="27">
-        <v>0</v>
-      </c>
-      <c r="I38" s="27">
+      <c r="H38" s="24">
+        <v>0</v>
+      </c>
+      <c r="I38" s="24">
         <v>-19.25</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="B39" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C39" s="24">
         <v>2</v>
       </c>
-      <c r="D39" s="27">
-        <v>0</v>
-      </c>
-      <c r="E39" s="27">
+      <c r="D39" s="24">
+        <v>0</v>
+      </c>
+      <c r="E39" s="24">
         <v>-2</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="25">
         <v>-1</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="24">
         <v>52.34</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="24">
         <v>2.83</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="24">
         <v>-49.51</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="25">
         <v>-0.94589999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C40" s="27">
-        <v>1</v>
-      </c>
-      <c r="D40" s="27">
-        <v>0</v>
-      </c>
-      <c r="E40" s="27">
+      <c r="B40" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="E40" s="24">
         <v>-1</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="25">
         <v>-1</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="24">
         <v>34.43</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="24">
         <v>8.82</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="24">
         <v>-25.61</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="25">
         <v>-0.74380000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="27">
         <v>2856</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="24">
         <v>9</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="24">
         <v>3</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="24">
         <v>-6</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="25">
         <v>-0.66669999999999996</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="24">
         <v>129.72</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="24">
         <v>56.24</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="24">
         <v>-73.48</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="25">
         <v>-0.5665</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="27">
         <v>2692</v>
       </c>
-      <c r="C42" s="27">
-        <v>1</v>
-      </c>
-      <c r="D42" s="27">
-        <v>0</v>
-      </c>
-      <c r="E42" s="27">
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0</v>
+      </c>
+      <c r="E42" s="24">
         <v>-1</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="25">
         <v>-1</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="24">
         <v>140.16</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="24">
         <v>14.22</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="24">
         <v>-125.94</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="25">
         <v>-0.89849999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C43" s="27">
-        <v>0</v>
-      </c>
-      <c r="D43" s="27">
-        <v>0</v>
-      </c>
-      <c r="E43" s="27">
-        <v>0</v>
-      </c>
-      <c r="F43" s="28">
-        <v>0</v>
-      </c>
-      <c r="G43" s="27">
+      <c r="B43" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24">
         <v>6.2</v>
       </c>
-      <c r="H43" s="27">
-        <v>0</v>
-      </c>
-      <c r="I43" s="27">
+      <c r="H43" s="24">
+        <v>0</v>
+      </c>
+      <c r="I43" s="24">
         <v>-6.2</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="27">
         <v>2692</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="24">
         <v>2</v>
       </c>
-      <c r="D44" s="27">
-        <v>0</v>
-      </c>
-      <c r="E44" s="27">
+      <c r="D44" s="24">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24">
         <v>-2</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="25">
         <v>-1</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="24">
         <v>16.75</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="24">
         <v>17.329999999999998</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="25">
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="27">
         <v>2856</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="24">
         <v>4</v>
       </c>
-      <c r="D45" s="27">
-        <v>0</v>
-      </c>
-      <c r="E45" s="27">
+      <c r="D45" s="24">
+        <v>0</v>
+      </c>
+      <c r="E45" s="24">
         <v>-4</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="25">
         <v>-1</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="24">
         <v>141.97</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="24">
         <v>13.49</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="24">
         <v>-128.47999999999999</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="25">
         <v>-0.90500000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C46" s="27">
+      <c r="B46" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C46" s="24">
         <v>2</v>
       </c>
-      <c r="D46" s="27">
-        <v>0</v>
-      </c>
-      <c r="E46" s="27">
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="24">
         <v>-2</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="25">
         <v>-1</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="24">
         <v>44.44</v>
       </c>
-      <c r="H46" s="27">
-        <v>0</v>
-      </c>
-      <c r="I46" s="27">
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
         <v>-44.44</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="27">
         <v>2692</v>
       </c>
-      <c r="C47" s="27">
-        <v>1</v>
-      </c>
-      <c r="D47" s="27">
-        <v>0</v>
-      </c>
-      <c r="E47" s="27">
+      <c r="C47" s="24">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0</v>
+      </c>
+      <c r="E47" s="24">
         <v>-1</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="25">
         <v>-1</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="24">
         <v>9.61</v>
       </c>
-      <c r="H47" s="27">
-        <v>0</v>
-      </c>
-      <c r="I47" s="27">
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
         <v>-9.61</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="25">
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="27">
         <v>2856</v>
       </c>
-      <c r="C48" s="27">
-        <v>0</v>
-      </c>
-      <c r="D48" s="27">
-        <v>0</v>
-      </c>
-      <c r="E48" s="27">
-        <v>0</v>
-      </c>
-      <c r="F48" s="28">
-        <v>0</v>
-      </c>
-      <c r="G48" s="27">
-        <v>0</v>
-      </c>
-      <c r="H48" s="27">
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0</v>
+      </c>
+      <c r="E48" s="24">
+        <v>0</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+      <c r="H48" s="24">
         <v>6.64</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="24">
         <v>6.64</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C49" s="27">
-        <v>0</v>
-      </c>
-      <c r="D49" s="27">
-        <v>0</v>
-      </c>
-      <c r="E49" s="27">
-        <v>0</v>
-      </c>
-      <c r="F49" s="28">
-        <v>0</v>
-      </c>
-      <c r="G49" s="27">
-        <v>0</v>
-      </c>
-      <c r="H49" s="27">
+      <c r="B49" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0</v>
+      </c>
+      <c r="E49" s="24">
+        <v>0</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+      <c r="H49" s="24">
         <v>8.82</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="24">
         <v>8.82</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>2692</v>
       </c>
-      <c r="C50" s="27">
-        <v>0</v>
-      </c>
-      <c r="D50" s="27">
-        <v>1</v>
-      </c>
-      <c r="E50" s="27">
-        <v>1</v>
-      </c>
-      <c r="F50" s="28">
-        <v>1</v>
-      </c>
-      <c r="G50" s="27">
-        <v>0</v>
-      </c>
-      <c r="H50" s="27">
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24">
+        <v>1</v>
+      </c>
+      <c r="E50" s="24">
+        <v>1</v>
+      </c>
+      <c r="F50" s="25">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0</v>
+      </c>
+      <c r="H50" s="24">
         <v>61.13</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="24">
         <v>61.13</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="27">
         <v>2856</v>
       </c>
-      <c r="C51" s="27">
-        <v>0</v>
-      </c>
-      <c r="D51" s="27">
-        <v>0</v>
-      </c>
-      <c r="E51" s="27">
-        <v>0</v>
-      </c>
-      <c r="F51" s="28">
-        <v>0</v>
-      </c>
-      <c r="G51" s="27">
-        <v>0</v>
-      </c>
-      <c r="H51" s="27">
+      <c r="C51" s="24">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0</v>
+      </c>
+      <c r="F51" s="25">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0</v>
+      </c>
+      <c r="H51" s="24">
         <v>34.950000000000003</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I51" s="24">
         <v>34.950000000000003</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="27">
         <v>2692</v>
       </c>
-      <c r="C52" s="27">
-        <v>0</v>
-      </c>
-      <c r="D52" s="27">
-        <v>0</v>
-      </c>
-      <c r="E52" s="27">
-        <v>0</v>
-      </c>
-      <c r="F52" s="28">
-        <v>0</v>
-      </c>
-      <c r="G52" s="27">
-        <v>0</v>
-      </c>
-      <c r="H52" s="27">
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="25">
+        <v>0</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0</v>
+      </c>
+      <c r="H52" s="24">
         <v>8.08</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="24">
         <v>8.08</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="27">
         <v>2692</v>
       </c>
-      <c r="C53" s="27">
-        <v>0</v>
-      </c>
-      <c r="D53" s="27">
-        <v>0</v>
-      </c>
-      <c r="E53" s="27">
-        <v>0</v>
-      </c>
-      <c r="F53" s="28">
-        <v>0</v>
-      </c>
-      <c r="G53" s="27">
-        <v>0</v>
-      </c>
-      <c r="H53" s="27">
+      <c r="C53" s="24">
+        <v>0</v>
+      </c>
+      <c r="D53" s="24">
+        <v>0</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0</v>
+      </c>
+      <c r="H53" s="24">
         <v>9.17</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="24">
         <v>9.17</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="27">
         <v>2692</v>
       </c>
-      <c r="C54" s="27">
-        <v>0</v>
-      </c>
-      <c r="D54" s="27">
-        <v>0</v>
-      </c>
-      <c r="E54" s="27">
-        <v>0</v>
-      </c>
-      <c r="F54" s="28">
-        <v>0</v>
-      </c>
-      <c r="G54" s="27">
-        <v>0</v>
-      </c>
-      <c r="H54" s="27">
-        <v>0</v>
-      </c>
-      <c r="I54" s="27">
-        <v>0</v>
-      </c>
-      <c r="J54" s="28">
+      <c r="C54" s="24">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0</v>
+      </c>
+      <c r="F54" s="25">
+        <v>0</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0</v>
+      </c>
+      <c r="I54" s="24">
+        <v>0</v>
+      </c>
+      <c r="J54" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="27">
         <v>2856</v>
       </c>
-      <c r="C55" s="27">
-        <v>0</v>
-      </c>
-      <c r="D55" s="27">
-        <v>1</v>
-      </c>
-      <c r="E55" s="27">
-        <v>1</v>
-      </c>
-      <c r="F55" s="28">
-        <v>1</v>
-      </c>
-      <c r="G55" s="27">
-        <v>0</v>
-      </c>
-      <c r="H55" s="27">
+      <c r="C55" s="24">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24">
+        <v>1</v>
+      </c>
+      <c r="E55" s="24">
+        <v>1</v>
+      </c>
+      <c r="F55" s="25">
+        <v>1</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0</v>
+      </c>
+      <c r="H55" s="24">
         <v>90.72</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="24">
         <v>90.72</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C56" s="27">
-        <v>0</v>
-      </c>
-      <c r="D56" s="27">
-        <v>0</v>
-      </c>
-      <c r="E56" s="27">
-        <v>0</v>
-      </c>
-      <c r="F56" s="28">
-        <v>0</v>
-      </c>
-      <c r="G56" s="27">
-        <v>0</v>
-      </c>
-      <c r="H56" s="27">
+      <c r="B56" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0</v>
+      </c>
+      <c r="F56" s="25">
+        <v>0</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0</v>
+      </c>
+      <c r="H56" s="24">
         <v>2.37</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="24">
         <v>2.37</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="27">
         <v>2856</v>
       </c>
-      <c r="C57" s="27">
-        <v>0</v>
-      </c>
-      <c r="D57" s="27">
-        <v>1</v>
-      </c>
-      <c r="E57" s="27">
-        <v>1</v>
-      </c>
-      <c r="F57" s="28">
-        <v>1</v>
-      </c>
-      <c r="G57" s="27">
-        <v>0</v>
-      </c>
-      <c r="H57" s="27">
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
+      <c r="E57" s="24">
+        <v>1</v>
+      </c>
+      <c r="F57" s="25">
+        <v>1</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0</v>
+      </c>
+      <c r="H57" s="24">
         <v>50.24</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="24">
         <v>50.24</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="30">
-        <v>2043</v>
-      </c>
-      <c r="C58" s="27">
-        <v>0</v>
-      </c>
-      <c r="D58" s="27">
-        <v>0</v>
-      </c>
-      <c r="E58" s="27">
-        <v>0</v>
-      </c>
-      <c r="F58" s="28">
-        <v>0</v>
-      </c>
-      <c r="G58" s="27">
-        <v>0</v>
-      </c>
-      <c r="H58" s="27">
+      <c r="B58" s="27">
+        <v>2043</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
+      <c r="E58" s="24">
+        <v>0</v>
+      </c>
+      <c r="F58" s="25">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
         <v>1.58</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="24">
         <v>1.58</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="27">
         <v>2856</v>
       </c>
-      <c r="C59" s="27">
-        <v>0</v>
-      </c>
-      <c r="D59" s="27">
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
         <v>3</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="24">
         <v>3</v>
       </c>
-      <c r="F59" s="28">
-        <v>1</v>
-      </c>
-      <c r="G59" s="27">
-        <v>0</v>
-      </c>
-      <c r="H59" s="27">
+      <c r="F59" s="25">
+        <v>1</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+      <c r="H59" s="24">
         <v>46.98</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="24">
         <v>46.98</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="27">
         <v>2856</v>
       </c>
-      <c r="C60" s="27">
-        <v>0</v>
-      </c>
-      <c r="D60" s="27">
+      <c r="C60" s="24">
+        <v>0</v>
+      </c>
+      <c r="D60" s="24">
         <v>2</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="24">
         <v>2</v>
       </c>
-      <c r="F60" s="28">
-        <v>1</v>
-      </c>
-      <c r="G60" s="27">
-        <v>0</v>
-      </c>
-      <c r="H60" s="27">
+      <c r="F60" s="25">
+        <v>1</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0</v>
+      </c>
+      <c r="H60" s="24">
         <v>20.2</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="24">
         <v>20.2</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="37" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="35" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F5E65F-7DC6-6344-ACA0-C556E7D831CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E229FD-562A-2B49-B320-C4C2F5097901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -652,6 +652,10 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -756,20 +760,230 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="149">
+  <dxfs count="166">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -3184,61 +3398,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:J47" totalsRowShown="0" headerRowDxfId="148" dataDxfId="146" headerRowBorderDxfId="147" tableBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:J47" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
   <autoFilter ref="A2:J47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas-Pagadas" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Recibo_Ordinario_Pagado" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total _Prima_Pagada" dataDxfId="139"/>
-    <tableColumn id="1" xr3:uid="{E28A327A-321D-AB4B-A3E4-B84B36B11129}" name="Pólizas_Pendinetes" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2AAC82E1-6CC3-F045-B587-E5A490F632BF}" name="Recibo_Inicial_Pendiente" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1857825C-6430-7844-B09E-A33AFAEE6854}" name="Recibo_Ordinario_Pendiente" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{48B56B42-A49D-2E42-8271-5CB59AB26C60}" name="Total _Prima_Pendiente" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas-Pagadas" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Recibo_Ordinario_Pagado" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total _Prima_Pagada" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{E28A327A-321D-AB4B-A3E4-B84B36B11129}" name="Pólizas_Pendinetes" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{2AAC82E1-6CC3-F045-B587-E5A490F632BF}" name="Recibo_Inicial_Pendiente" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{1857825C-6430-7844-B09E-A33AFAEE6854}" name="Recibo_Ordinario_Pendiente" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{48B56B42-A49D-2E42-8271-5CB59AB26C60}" name="Total _Prima_Pendiente" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="134" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="133" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="132" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="131" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="130" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="129" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="128" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="127" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="151" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="150" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="149" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="148" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="147" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="146" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="145" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="144" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="118"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="116"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="114"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="113"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="112"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3263,26 +3477,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="103" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="99" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="120" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="117"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="116" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="115" headerRowBorderDxfId="114" tableBorderDxfId="113">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -3629,7 +3843,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3647,16 +3861,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="33">
-        <v>46076</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="34">
+        <v>46077</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3674,81 +3888,81 @@
       <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2043</v>
+      </c>
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>2043</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>65202.23</v>
       </c>
       <c r="E3" s="4">
-        <v>104105.63</v>
+        <v>74654.5</v>
       </c>
       <c r="F3" s="4">
-        <v>104105.63</v>
-      </c>
-      <c r="G3" s="35">
-        <v>2</v>
+        <v>139856.73000000001</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
       </c>
       <c r="H3" s="4">
-        <v>27098.19</v>
+        <v>72844.100000000006</v>
       </c>
       <c r="I3" s="4">
-        <v>258426.17</v>
+        <v>35541.379999999997</v>
       </c>
       <c r="J3" s="4">
-        <v>285524.36</v>
+        <v>108385.48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>2043</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>61004.82</v>
+        <v>2979.51</v>
       </c>
       <c r="E4" s="4">
-        <v>13354.39</v>
+        <v>111205.27</v>
       </c>
       <c r="F4" s="4">
-        <v>74359.210000000006</v>
-      </c>
-      <c r="G4" s="36">
-        <v>2</v>
+        <v>114184.78</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>138341.62</v>
+        <v>24118.68</v>
       </c>
       <c r="I4" s="4">
-        <v>35541.379999999997</v>
+        <v>251326.53</v>
       </c>
       <c r="J4" s="4">
-        <v>173883</v>
+        <v>275445.21000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3765,22 +3979,22 @@
         <v>3018.58</v>
       </c>
       <c r="E5" s="4">
-        <v>68232.83</v>
+        <v>73706.06</v>
       </c>
       <c r="F5" s="4">
-        <v>71251.41</v>
-      </c>
-      <c r="G5" s="36">
+        <v>76724.639999999999</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>37782.11</v>
+        <v>36082.639999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>37782.11</v>
+        <v>36082.639999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3802,7 +4016,7 @@
       <c r="F6" s="4">
         <v>52982.99</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -3834,7 +4048,7 @@
       <c r="F7" s="4">
         <v>52275.28</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
       <c r="H7" s="4">
@@ -3849,66 +4063,66 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>8771.2099999999991</v>
       </c>
       <c r="E8" s="4">
-        <v>27079.33</v>
+        <v>25352.99</v>
       </c>
       <c r="F8" s="4">
-        <v>27079.33</v>
-      </c>
-      <c r="G8" s="36">
+        <v>34124.199999999997</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>129008.51</v>
+        <v>114458.92</v>
       </c>
       <c r="J8" s="4">
-        <v>129008.51</v>
+        <v>114458.92</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>1584.48</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>24420.92</v>
+        <v>27079.33</v>
       </c>
       <c r="F9" s="4">
-        <v>26005.4</v>
-      </c>
-      <c r="G9" s="36">
-        <v>2</v>
+        <v>27079.33</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>8118.65</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>114458.92</v>
+        <v>129008.51</v>
       </c>
       <c r="J9" s="4">
-        <v>122577.57</v>
+        <v>129008.51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3930,7 +4144,7 @@
       <c r="F10" s="4">
         <v>22054.400000000001</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="4">
@@ -3962,7 +4176,7 @@
       <c r="F11" s="4">
         <v>20077.400000000001</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="4">
@@ -3977,42 +4191,42 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>2043</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1973.29</v>
       </c>
       <c r="E12" s="4">
-        <v>14887.38</v>
+        <v>13552</v>
       </c>
       <c r="F12" s="4">
-        <v>14887.38</v>
-      </c>
-      <c r="G12" s="36">
+        <v>15525.29</v>
+      </c>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>14887.38</v>
+        <v>46859.360000000001</v>
       </c>
       <c r="J12" s="4">
-        <v>14887.38</v>
+        <v>46859.360000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -4021,27 +4235,27 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>14217.61</v>
+        <v>14887.38</v>
       </c>
       <c r="F13" s="4">
-        <v>14217.61</v>
-      </c>
-      <c r="G13" s="36">
+        <v>14887.38</v>
+      </c>
+      <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>113740.88</v>
+        <v>14887.38</v>
       </c>
       <c r="J13" s="4">
-        <v>113740.88</v>
+        <v>14887.38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>2692</v>
@@ -4053,27 +4267,27 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>11945.29</v>
+        <v>14217.61</v>
       </c>
       <c r="F14" s="4">
-        <v>11945.29</v>
-      </c>
-      <c r="G14" s="36">
+        <v>14217.61</v>
+      </c>
+      <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>66315.25</v>
+        <v>113740.88</v>
       </c>
       <c r="J14" s="4">
-        <v>66315.25</v>
+        <v>113740.88</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>2692</v>
@@ -4085,30 +4299,30 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>11532.26</v>
+        <v>11945.29</v>
       </c>
       <c r="F15" s="4">
-        <v>11532.26</v>
-      </c>
-      <c r="G15" s="36">
-        <v>2</v>
+        <v>11945.29</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>21932.89</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>37026.089999999997</v>
+        <v>66315.25</v>
       </c>
       <c r="J15" s="4">
-        <v>58958.98</v>
+        <v>66315.25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -4117,27 +4331,27 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>9688.8700000000008</v>
+        <v>11532.26</v>
       </c>
       <c r="F16" s="4">
-        <v>9688.8700000000008</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0</v>
+        <v>11532.26</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>21932.89</v>
       </c>
       <c r="I16" s="4">
-        <v>24855.21</v>
+        <v>37026.089999999997</v>
       </c>
       <c r="J16" s="4">
-        <v>24855.21</v>
+        <v>58958.98</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
         <v>2043</v>
@@ -4149,27 +4363,27 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>9281.48</v>
+        <v>9688.8700000000008</v>
       </c>
       <c r="F17" s="4">
-        <v>9281.48</v>
-      </c>
-      <c r="G17" s="36">
+        <v>9688.8700000000008</v>
+      </c>
+      <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>34668.69</v>
+        <v>24855.21</v>
       </c>
       <c r="J17" s="4">
-        <v>34668.69</v>
+        <v>24855.21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>2043</v>
@@ -4181,30 +4395,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>8821.32</v>
+        <v>9281.48</v>
       </c>
       <c r="F18" s="4">
-        <v>8821.32</v>
-      </c>
-      <c r="G18" s="36">
+        <v>9281.48</v>
+      </c>
+      <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>11272.92</v>
+        <v>34668.69</v>
       </c>
       <c r="J18" s="4">
-        <v>11272.92</v>
+        <v>34668.69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -4213,27 +4427,27 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>7991.52</v>
+        <v>8821.32</v>
       </c>
       <c r="F19" s="4">
-        <v>7991.52</v>
-      </c>
-      <c r="G19" s="36">
+        <v>8821.32</v>
+      </c>
+      <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>55306.96</v>
+        <v>11272.92</v>
       </c>
       <c r="J19" s="4">
-        <v>55306.96</v>
+        <v>11272.92</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>2692</v>
@@ -4242,97 +4456,97 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>-6.95</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>7467.79</v>
+        <v>7991.52</v>
       </c>
       <c r="F20" s="4">
-        <v>7460.84</v>
-      </c>
-      <c r="G20" s="36">
+        <v>7991.52</v>
+      </c>
+      <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>15352.07</v>
+        <v>55306.96</v>
       </c>
       <c r="J20" s="4">
-        <v>15352.07</v>
+        <v>55306.96</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>1809.19</v>
+        <v>-6.95</v>
       </c>
       <c r="E21" s="4">
-        <v>4906.95</v>
+        <v>7467.79</v>
       </c>
       <c r="F21" s="4">
-        <v>6716.14</v>
-      </c>
-      <c r="G21" s="36">
+        <v>7460.84</v>
+      </c>
+      <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>43873.2</v>
+        <v>15352.07</v>
       </c>
       <c r="J21" s="4">
-        <v>43873.2</v>
+        <v>15352.07</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>2856</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1809.19</v>
       </c>
       <c r="E22" s="4">
-        <v>6639.64</v>
+        <v>4906.95</v>
       </c>
       <c r="F22" s="4">
-        <v>6639.64</v>
-      </c>
-      <c r="G22" s="36">
+        <v>6716.14</v>
+      </c>
+      <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>8336.92</v>
+        <v>43873.2</v>
       </c>
       <c r="J22" s="4">
-        <v>8336.92</v>
+        <v>43873.2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -4341,30 +4555,30 @@
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <v>6463.82</v>
+        <v>6639.64</v>
       </c>
       <c r="F23" s="4">
-        <v>6463.82</v>
-      </c>
-      <c r="G23" s="36">
+        <v>6639.64</v>
+      </c>
+      <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>60745.99</v>
+        <v>8336.92</v>
       </c>
       <c r="J23" s="4">
-        <v>60745.99</v>
+        <v>8336.92</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -4373,27 +4587,27 @@
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>6196.74</v>
+        <v>6463.82</v>
       </c>
       <c r="F24" s="4">
-        <v>6196.74</v>
-      </c>
-      <c r="G24" s="36">
+        <v>6463.82</v>
+      </c>
+      <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>0</v>
+        <v>60745.99</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>60745.99</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
         <v>2043</v>
@@ -4405,12 +4619,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>6125.03</v>
+        <v>6196.74</v>
       </c>
       <c r="F25" s="4">
-        <v>6125.03</v>
-      </c>
-      <c r="G25" s="36">
+        <v>6196.74</v>
+      </c>
+      <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -4425,10 +4639,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -4437,30 +4651,30 @@
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>5895.02</v>
+        <v>6125.03</v>
       </c>
       <c r="F26" s="4">
-        <v>5895.02</v>
-      </c>
-      <c r="G26" s="36">
-        <v>1</v>
+        <v>6125.03</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>36777.25</v>
+        <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>50354.53</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>87131.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -4469,27 +4683,27 @@
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>5745.69</v>
+        <v>5895.02</v>
       </c>
       <c r="F27" s="4">
-        <v>5745.69</v>
-      </c>
-      <c r="G27" s="36">
-        <v>0</v>
+        <v>5895.02</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
+        <v>36777.25</v>
       </c>
       <c r="I27" s="4">
-        <v>22496</v>
+        <v>50354.53</v>
       </c>
       <c r="J27" s="4">
-        <v>22496</v>
+        <v>87131.78</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2">
         <v>2043</v>
@@ -4501,27 +4715,27 @@
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>5620.13</v>
+        <v>5745.69</v>
       </c>
       <c r="F28" s="4">
-        <v>5620.13</v>
-      </c>
-      <c r="G28" s="36">
-        <v>1</v>
+        <v>5745.69</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>24131.27</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>23573.33</v>
+        <v>22496</v>
       </c>
       <c r="J28" s="4">
-        <v>47704.6</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2">
         <v>2043</v>
@@ -4533,27 +4747,27 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>5138.51</v>
+        <v>5620.13</v>
       </c>
       <c r="F29" s="4">
-        <v>5138.51</v>
-      </c>
-      <c r="G29" s="36">
-        <v>0</v>
+        <v>5620.13</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>24131.27</v>
       </c>
       <c r="I29" s="4">
-        <v>10277.030000000001</v>
+        <v>23573.33</v>
       </c>
       <c r="J29" s="4">
-        <v>10277.030000000001</v>
+        <v>47704.6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>2043</v>
@@ -4565,30 +4779,30 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>4663.49</v>
+        <v>5138.51</v>
       </c>
       <c r="F30" s="4">
-        <v>4663.49</v>
-      </c>
-      <c r="G30" s="36">
+        <v>5138.51</v>
+      </c>
+      <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>3167.47</v>
+        <v>10277.030000000001</v>
       </c>
       <c r="J30" s="4">
-        <v>3167.47</v>
+        <v>10277.030000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -4597,27 +4811,27 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>4487.59</v>
+        <v>5089.54</v>
       </c>
       <c r="F31" s="4">
-        <v>4487.59</v>
-      </c>
-      <c r="G31" s="36">
+        <v>5089.54</v>
+      </c>
+      <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>38209.879999999997</v>
+        <v>10679.89</v>
       </c>
       <c r="J31" s="4">
-        <v>38209.879999999997</v>
+        <v>10679.89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
         <v>2043</v>
@@ -4629,59 +4843,59 @@
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>4192.72</v>
+        <v>4663.49</v>
       </c>
       <c r="F32" s="4">
-        <v>4192.72</v>
-      </c>
-      <c r="G32" s="36">
+        <v>4663.49</v>
+      </c>
+      <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>23946.42</v>
+        <v>3167.47</v>
       </c>
       <c r="J32" s="4">
-        <v>23946.42</v>
+        <v>3167.47</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2">
         <v>2856</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>2561.44</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>1432.54</v>
+        <v>4487.59</v>
       </c>
       <c r="F33" s="4">
-        <v>3993.98</v>
-      </c>
-      <c r="G33" s="36">
-        <v>1</v>
+        <v>4487.59</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>5165.8599999999997</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>21373.95</v>
+        <v>38209.879999999997</v>
       </c>
       <c r="J33" s="4">
-        <v>26539.81</v>
+        <v>38209.879999999997</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2">
         <v>2043</v>
@@ -4693,59 +4907,59 @@
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>3151.08</v>
+        <v>4192.72</v>
       </c>
       <c r="F34" s="4">
-        <v>3151.08</v>
-      </c>
-      <c r="G34" s="36">
+        <v>4192.72</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>23946.42</v>
       </c>
       <c r="J34" s="4">
-        <v>0</v>
+        <v>23946.42</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>2561.44</v>
       </c>
       <c r="E35" s="4">
-        <v>2852.69</v>
+        <v>1432.54</v>
       </c>
       <c r="F35" s="4">
-        <v>2852.69</v>
-      </c>
-      <c r="G35" s="36">
-        <v>0</v>
+        <v>3993.98</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>5165.8599999999997</v>
       </c>
       <c r="I35" s="4">
-        <v>1575.88</v>
+        <v>21373.95</v>
       </c>
       <c r="J35" s="4">
-        <v>1575.88</v>
+        <v>26539.81</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2">
         <v>2043</v>
@@ -4757,27 +4971,27 @@
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>2833.03</v>
+        <v>3151.08</v>
       </c>
       <c r="F36" s="4">
-        <v>2833.03</v>
-      </c>
-      <c r="G36" s="36">
+        <v>3151.08</v>
+      </c>
+      <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>4506.84</v>
+        <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>4506.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>2043</v>
@@ -4789,27 +5003,27 @@
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>2133.91</v>
+        <v>2852.69</v>
       </c>
       <c r="F37" s="4">
-        <v>2133.91</v>
-      </c>
-      <c r="G37" s="36">
-        <v>1</v>
+        <v>2852.69</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>5102.97</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>1575.88</v>
       </c>
       <c r="J37" s="4">
-        <v>5102.97</v>
+        <v>1575.88</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
         <v>2043</v>
@@ -4821,30 +5035,30 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>1721.93</v>
+        <v>2833.03</v>
       </c>
       <c r="F38" s="4">
-        <v>1721.93</v>
-      </c>
-      <c r="G38" s="36">
+        <v>2833.03</v>
+      </c>
+      <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>22676.73</v>
+        <v>4506.84</v>
       </c>
       <c r="J38" s="4">
-        <v>22676.73</v>
+        <v>4506.84</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -4853,30 +5067,30 @@
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>1712.03</v>
+        <v>2133.91</v>
       </c>
       <c r="F39" s="4">
-        <v>1712.03</v>
-      </c>
-      <c r="G39" s="36">
-        <v>0</v>
+        <v>2133.91</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>0</v>
+        <v>5102.97</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>0</v>
+        <v>5102.97</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -4885,30 +5099,30 @@
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>1297.97</v>
+        <v>1721.93</v>
       </c>
       <c r="F40" s="4">
-        <v>1297.97</v>
-      </c>
-      <c r="G40" s="36">
+        <v>1721.93</v>
+      </c>
+      <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <v>32930.35</v>
+        <v>22676.73</v>
       </c>
       <c r="J40" s="4">
-        <v>32930.35</v>
+        <v>22676.73</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -4917,30 +5131,30 @@
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>1269.82</v>
+        <v>1712.03</v>
       </c>
       <c r="F41" s="4">
-        <v>1269.82</v>
-      </c>
-      <c r="G41" s="36">
+        <v>1712.03</v>
+      </c>
+      <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="4">
         <v>0</v>
       </c>
       <c r="I41" s="4">
-        <v>49303.64</v>
+        <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>49303.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -4949,27 +5163,27 @@
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>651.19000000000005</v>
+        <v>1297.97</v>
       </c>
       <c r="F42" s="4">
-        <v>651.19000000000005</v>
-      </c>
-      <c r="G42" s="36">
-        <v>1</v>
+        <v>1297.97</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="4">
-        <v>14874.1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="4">
-        <v>46859.360000000001</v>
+        <v>32930.35</v>
       </c>
       <c r="J42" s="4">
-        <v>61733.46</v>
+        <v>32930.35</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
         <v>2043</v>
@@ -4981,27 +5195,27 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <v>0</v>
+        <v>1269.82</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="36">
+        <v>1269.82</v>
+      </c>
+      <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
       <c r="I43" s="4">
-        <v>18020.830000000002</v>
+        <v>49303.64</v>
       </c>
       <c r="J43" s="4">
-        <v>18020.830000000002</v>
+        <v>49303.64</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2">
         <v>2043</v>
@@ -5018,22 +5232,22 @@
       <c r="F44" s="4">
         <v>0</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <v>10092.959999999999</v>
+        <v>18020.830000000002</v>
       </c>
       <c r="J44" s="4">
-        <v>10092.959999999999</v>
+        <v>18020.830000000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2">
         <v>2043</v>
@@ -5050,17 +5264,17 @@
       <c r="F45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="4">
         <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>15118.28</v>
+        <v>10092.959999999999</v>
       </c>
       <c r="J45" s="4">
-        <v>15118.28</v>
+        <v>10092.959999999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5082,7 +5296,7 @@
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="4">
@@ -5109,109 +5323,109 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="109" priority="99" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="98" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="104" priority="102" stopIfTrue="1">
+      <formula>$Q95=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+      <formula>$Q96=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:D47 F47">
+    <cfRule type="expression" dxfId="102" priority="120" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="119" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="91" priority="117" stopIfTrue="1">
+      <formula>$Q47=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="118" stopIfTrue="1">
+      <formula>$Q46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A46">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+      <formula>$S4=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>$S3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="95" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="94" priority="28" stopIfTrue="1">
-      <formula>$S3=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="27" stopIfTrue="1">
-      <formula>$S4=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="92" priority="82" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="81" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="90" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="89" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
-      <formula>$Q95=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="84" stopIfTrue="1">
-      <formula>$Q96=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="85" priority="103" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="102" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="74" priority="100" stopIfTrue="1">
-      <formula>$Q47=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="101" stopIfTrue="1">
-      <formula>$Q46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G4:G46">
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I46 C4:E46">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F46 J4:J7 J9:J46">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="F4:F46 J4:J8 J10:J46">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3 H3:I3">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 J3">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J9">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>$S8=1</formula>
+      <formula>$S9=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$S7=1</formula>
+      <formula>$S8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5249,2023 +5463,2023 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="34">
+      <c r="A1" s="35">
         <v>46071</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="56" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="B3" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
         <v>3904.72</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <v>2870</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="N3" s="7">
-        <v>2043</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="I3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="8">
+        <v>2043</v>
+      </c>
+      <c r="O3" s="8">
         <v>27</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <v>2</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="9">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="8">
         <v>6</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="9">
         <v>0.22220000000000001</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="8">
         <v>2</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="9">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="8">
         <v>5</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="9">
         <v>0.1852</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="10">
         <v>351124.3</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="10">
         <v>96470</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="B4" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
         <v>4663.49</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>1263</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="I4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="8">
         <v>2511</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <v>4</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="9">
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="B5" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
         <v>9688.8700000000008</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="8">
         <v>2692</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8">
         <v>9</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="9">
         <v>0.22220000000000001</v>
       </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8">
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9">
         <v>0.1111</v>
       </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="8">
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9">
         <v>0.1111</v>
       </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="8">
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9">
         <v>0.1111</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="10">
         <v>64539.13</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="10">
         <v>46429</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="B6" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <v>1269.82</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>2325</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="I6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="8">
         <v>2856</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="8">
         <v>7</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
         <v>2</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="9">
         <v>0.28570000000000001</v>
       </c>
-      <c r="R6" s="7">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9">
         <v>0.1429</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="8">
         <v>2</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="9">
         <v>0.28570000000000001</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="8">
         <v>2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="9">
         <v>0.28570000000000001</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="10">
         <v>80542.61</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="10">
         <v>25505</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>2692</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>24293.37</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <v>3262</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="17">
         <v>2692</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>11532.26</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>1680</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="B9" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
         <v>9281.48</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="B10" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
         <v>3279.92</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="B11" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>27079.33</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>2160</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>2692</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <v>3914.01</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="14"/>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="17">
         <v>2692</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
         <v>7460.84</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="B14" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
         <v>1329.68</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="B15" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
         <v>1345.8</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <v>1558</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="14" t="s">
+      <c r="I15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="17">
         <v>2856</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="B17" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
         <v>2833.03</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14" t="s">
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="B18" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
         <v>7287.37</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>29054</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="17">
         <v>2856</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
         <v>40909.81</v>
       </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14" t="s">
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="17">
         <v>2692</v>
       </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="14"/>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="17">
         <v>2692</v>
       </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
         <v>11945.29</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="14">
         <v>41487</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="14"/>
+      <c r="I21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="17">
         <v>2856</v>
       </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
         <v>1712.03</v>
       </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22" s="14" t="s">
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="B23" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="17">
         <v>2856</v>
       </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
         <v>6639.64</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="14" t="s">
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="14" t="s">
+      <c r="B25" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="17">
         <v>2692</v>
       </c>
-      <c r="C26" s="12">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
         <v>1297.97</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="17">
         <v>2856</v>
       </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
         <v>4487.59</v>
       </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="17">
         <v>2692</v>
       </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
         <v>4095.39</v>
       </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14" t="s">
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="17">
         <v>2692</v>
       </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="14" t="s">
+      <c r="C29" s="13">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="17">
         <v>2856</v>
       </c>
-      <c r="C30" s="12">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
         <v>20077.400000000001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="14">
         <v>7755</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="I30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C31" s="12">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="B31" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14">
         <v>651.19000000000005</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="14">
         <v>7274</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="I31" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="17">
         <v>2856</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
         <v>6716.14</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="14">
         <v>17750</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C33" s="13">
         <v>2</v>
       </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
         <v>2</v>
       </c>
-      <c r="F33" s="12">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14">
         <v>71251.41</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="14">
         <v>24606</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="17">
         <v>2511</v>
       </c>
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="17">
         <v>2511</v>
       </c>
-      <c r="C35" s="12">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>0</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="14" t="s">
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="B36" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
         <v>1721.93</v>
       </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="14" t="s">
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="17">
         <v>2511</v>
       </c>
-      <c r="C37" s="12">
-        <v>0</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="B38" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
         <v>22054.400000000001</v>
       </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C39" s="12">
-        <v>0</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-      <c r="F39" s="12">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
+      <c r="B39" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="17">
         <v>2511</v>
       </c>
-      <c r="C40" s="12">
-        <v>0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="C40" s="13">
+        <v>0</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
-      <c r="F41" s="12">
-        <v>0</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="B41" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
         <v>14887.38</v>
       </c>
-      <c r="H41" s="13">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="14" t="s">
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C42" s="12">
-        <v>0</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="B42" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
         <v>2</v>
       </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
         <v>2</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="14">
         <v>101140.27</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="14">
         <v>18495</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
+      <c r="I42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="B43" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
         <v>4192.72</v>
       </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C44" s="12">
-        <v>0</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
+      <c r="B44" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
         <v>5138.51</v>
       </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="14" t="s">
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C45" s="12">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-      <c r="E45" s="12">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="B45" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
         <v>49792.33</v>
       </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14" t="s">
+      <c r="H45" s="14">
+        <v>0</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C46" s="12">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13">
+      <c r="B46" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
         <v>2133.91</v>
       </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C47" s="12">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L47" s="14" t="s">
+      <c r="B47" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="13">
+      <c r="B48" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
         <v>6196.74</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="14">
         <v>5340</v>
       </c>
-      <c r="I48" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
+      <c r="I48" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="16">
-        <v>2043</v>
-      </c>
-      <c r="C49" s="12">
-        <v>0</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0</v>
-      </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="13">
+      <c r="B49" s="17">
+        <v>2043</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
         <v>1525</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L49" s="14" t="s">
+      <c r="I49" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="65" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="64" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="62" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="60" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="58" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="5" stopIfTrue="1">
       <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="2" stopIfTrue="1">
       <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
       <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="1" stopIfTrue="1">
       <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="43" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7300,7 +7514,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.4">
-      <c r="A1" s="34">
+      <c r="A1" s="35">
         <v>46071</v>
       </c>
     </row>
@@ -8768,2104 +8982,2104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34">
+      <c r="A1" s="35">
         <v>46066</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="B3" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C3" s="25">
         <v>2</v>
       </c>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
         <v>-1</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="26">
         <v>-0.5</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <v>96.36</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="25">
         <v>66.58</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="25">
         <v>-29.78</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="26">
         <v>-0.309</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="B4" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
         <v>22.53</v>
       </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
         <v>-22.53</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="26">
         <v>-1</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="23">
         <v>78</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="23">
         <v>20</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="23">
         <v>-58</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="24">
         <v>-0.74358974358974361</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="23">
         <v>3065.09</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="23">
         <v>1357.4</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="23">
         <v>-1707.69</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="24">
         <v>-0.55714187837877516</v>
       </c>
-      <c r="U4" s="22">
-        <v>1</v>
-      </c>
-      <c r="V4" s="22">
-        <v>0</v>
-      </c>
-      <c r="W4" s="22">
+      <c r="U4" s="23">
+        <v>1</v>
+      </c>
+      <c r="V4" s="23">
+        <v>0</v>
+      </c>
+      <c r="W4" s="23">
         <v>-1</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="24">
         <v>-1</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="23">
         <v>141.97</v>
       </c>
-      <c r="Z4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="22">
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="23">
         <v>-141.97</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AB4" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>2511</v>
       </c>
-      <c r="C5" s="24">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
         <v>-1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="26">
         <v>-1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <v>23.41</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="25">
         <v>5.35</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="25">
         <v>-18.059999999999999</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="26">
         <v>-0.77149999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="B6" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
         <v>1.85</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="25">
         <v>2.75</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="25">
         <v>0.9</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <v>0.48649999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="28">
         <v>2511</v>
       </c>
-      <c r="C7" s="24">
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
         <v>8.8699999999999992</v>
       </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B8" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C8" s="25">
         <v>6</v>
       </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
         <v>-5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="26">
         <v>-0.83330000000000004</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>415.45</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="25">
         <v>32.630000000000003</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="25">
         <v>-382.82</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="26">
         <v>-0.92149999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C9" s="25">
         <v>4</v>
       </c>
-      <c r="D9" s="24">
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
         <v>-4</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="26">
         <v>-1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="25">
         <v>74.97</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="25">
         <v>15.71</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="25">
         <v>-59.26</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="26">
         <v>-0.79039999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>2511</v>
       </c>
-      <c r="C10" s="24">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
         <v>21.7</v>
       </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
         <v>-21.7</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="B11" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
         <v>2.87</v>
       </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
         <v>-2.87</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="B12" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
         <v>8.1</v>
       </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
         <v>-8.1</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="B13" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C13" s="25">
         <v>6</v>
       </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
         <v>-5</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <v>-0.83330000000000004</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="25">
         <v>571.64</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="25">
         <v>214.56</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="25">
         <v>-357.08</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="26">
         <v>-0.62470000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C14" s="24">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="B14" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
         <v>-1</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="26">
         <v>-1</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="25">
         <v>22.54</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="25">
         <v>8.39</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="25">
         <v>-14.15</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="26">
         <v>-0.62780000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
+      <c r="B15" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
         <v>4.34</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>10.28</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="25">
         <v>5.94</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <v>1.3687</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="B16" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C16" s="25">
         <v>9</v>
       </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
         <v>-8</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="26">
         <v>-0.88890000000000002</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="25">
         <v>259.25</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="25">
         <v>95.57</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="25">
         <v>-163.68</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="26">
         <v>-0.63139999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="E17" s="24">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="B17" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
         <v>7.7</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="25">
         <v>53.11</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="25">
         <v>45.41</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="26">
         <v>5.8974000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
+      <c r="B18" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
         <v>11.23</v>
       </c>
-      <c r="H18" s="24">
-        <v>0</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
         <v>-11.23</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="24">
+      <c r="B19" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
         <v>5.81</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="25">
         <v>10.119999999999999</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="25">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="26">
         <v>0.74180000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
+      <c r="B20" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
         <v>5.42</v>
       </c>
-      <c r="H20" s="24">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
         <v>-5.42</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="24">
+      <c r="B21" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H21" s="24">
-        <v>0</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C22" s="24">
+      <c r="B22" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C22" s="25">
         <v>3</v>
       </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
         <v>-3</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="26">
         <v>-1</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="25">
         <v>64.19</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="25">
         <v>37.909999999999997</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="25">
         <v>-26.28</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="26">
         <v>-0.40939999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="24">
+      <c r="B23" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
         <v>23.02</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="25">
         <v>13.36</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="25">
         <v>-9.66</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="26">
         <v>-0.41959999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C24" s="24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
+      <c r="B24" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
         <v>1.54</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="25">
         <v>9.69</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="25">
         <v>8.15</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="26">
         <v>5.2922000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C25" s="24">
+      <c r="B25" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C25" s="25">
         <v>3</v>
       </c>
-      <c r="D25" s="24">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
         <v>-3</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="26">
         <v>-1</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="25">
         <v>94.31</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="25">
         <v>22.44</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="25">
         <v>-71.87</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="26">
         <v>-0.7621</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="28">
         <v>2692</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="25">
         <v>4</v>
       </c>
-      <c r="D26" s="24">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
         <v>-4</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="26">
         <v>-1</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="25">
         <v>109.35</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="25">
         <v>48.44</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="25">
         <v>-60.91</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="26">
         <v>-0.55700000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="28">
         <v>2692</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="25">
         <v>3</v>
       </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
+      <c r="D27" s="25">
+        <v>1</v>
+      </c>
+      <c r="E27" s="25">
         <v>-2</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="26">
         <v>-0.66669999999999996</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="25">
         <v>121.85</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="25">
         <v>28.17</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="25">
         <v>-93.68</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="26">
         <v>-0.76880000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="25">
-        <v>1</v>
-      </c>
-      <c r="G28" s="24">
+      <c r="B28" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
+      <c r="F28" s="26">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25">
         <v>20.77</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="25">
         <v>13.23</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="25">
         <v>-7.54</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="26">
         <v>-0.36299999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
+      <c r="B29" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
         <v>-1</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="26">
         <v>-1</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="25">
         <v>54.74</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="25">
         <v>16.989999999999998</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="25">
         <v>-37.75</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="26">
         <v>-0.68959999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
+      <c r="B30" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
         <v>-1</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="26">
         <v>-1</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="25">
         <v>25.02</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="25">
         <v>54.93</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="25">
         <v>29.91</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="26">
         <v>1.1954</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="28">
         <v>2692</v>
       </c>
-      <c r="C31" s="24">
-        <v>0</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0</v>
-      </c>
-      <c r="E31" s="24">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
-        <v>0</v>
-      </c>
-      <c r="G31" s="24">
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
         <v>2.19</v>
       </c>
-      <c r="H31" s="24">
-        <v>0</v>
-      </c>
-      <c r="I31" s="24">
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25">
         <v>-2.19</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="28">
         <v>2692</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="25">
         <v>5</v>
       </c>
-      <c r="D32" s="24">
-        <v>0</v>
-      </c>
-      <c r="E32" s="24">
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
         <v>-5</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="26">
         <v>-1</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="25">
         <v>250.75</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="25">
         <v>18.43</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="25">
         <v>-232.32</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="26">
         <v>-0.92649999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="28">
         <v>2692</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="25">
         <v>4</v>
       </c>
-      <c r="D33" s="24">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24">
+      <c r="D33" s="25">
+        <v>1</v>
+      </c>
+      <c r="E33" s="25">
         <v>-3</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="26">
         <v>-0.75</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="25">
         <v>53.59</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="25">
         <v>110.71</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="25">
         <v>57.12</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="26">
         <v>1.0659000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C34" s="24">
-        <v>0</v>
-      </c>
-      <c r="D34" s="24">
-        <v>0</v>
-      </c>
-      <c r="E34" s="24">
-        <v>0</v>
-      </c>
-      <c r="F34" s="25">
-        <v>0</v>
-      </c>
-      <c r="G34" s="24">
+      <c r="B34" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0</v>
+      </c>
+      <c r="G34" s="25">
         <v>42.18</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="25">
         <v>4.43</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="25">
         <v>-37.75</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="26">
         <v>-0.89500000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="28">
         <v>2692</v>
       </c>
-      <c r="C35" s="24">
-        <v>1</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
+      <c r="C35" s="25">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25">
         <v>-1</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="26">
         <v>-1</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="25">
         <v>19.489999999999998</v>
       </c>
-      <c r="H35" s="24">
-        <v>0</v>
-      </c>
-      <c r="I35" s="24">
+      <c r="H35" s="25">
+        <v>0</v>
+      </c>
+      <c r="I35" s="25">
         <v>-19.489999999999998</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C36" s="24">
-        <v>1</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24">
+      <c r="B36" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C36" s="25">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
         <v>-1</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="26">
         <v>-1</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="25">
         <v>18.02</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="25">
         <v>9.81</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="25">
         <v>-8.2100000000000009</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="26">
         <v>-0.4556</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
-      <c r="F37" s="25">
-        <v>0</v>
-      </c>
-      <c r="G37" s="24">
+      <c r="B37" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0</v>
+      </c>
+      <c r="G37" s="25">
         <v>2.97</v>
       </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
-      <c r="I37" s="24">
+      <c r="H37" s="25">
+        <v>0</v>
+      </c>
+      <c r="I37" s="25">
         <v>-2.97</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="28">
         <v>2856</v>
       </c>
-      <c r="C38" s="24">
-        <v>0</v>
-      </c>
-      <c r="D38" s="24">
-        <v>0</v>
-      </c>
-      <c r="E38" s="24">
-        <v>0</v>
-      </c>
-      <c r="F38" s="25">
-        <v>0</v>
-      </c>
-      <c r="G38" s="24">
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25">
         <v>19.25</v>
       </c>
-      <c r="H38" s="24">
-        <v>0</v>
-      </c>
-      <c r="I38" s="24">
+      <c r="H38" s="25">
+        <v>0</v>
+      </c>
+      <c r="I38" s="25">
         <v>-19.25</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C39" s="24">
+      <c r="B39" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C39" s="25">
         <v>2</v>
       </c>
-      <c r="D39" s="24">
-        <v>0</v>
-      </c>
-      <c r="E39" s="24">
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25">
         <v>-2</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="26">
         <v>-1</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="25">
         <v>52.34</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="25">
         <v>2.83</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="25">
         <v>-49.51</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="26">
         <v>-0.94589999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C40" s="24">
-        <v>1</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0</v>
-      </c>
-      <c r="E40" s="24">
+      <c r="B40" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C40" s="25">
+        <v>1</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0</v>
+      </c>
+      <c r="E40" s="25">
         <v>-1</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="26">
         <v>-1</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="25">
         <v>34.43</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="25">
         <v>8.82</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="25">
         <v>-25.61</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="26">
         <v>-0.74380000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="28">
         <v>2856</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="25">
         <v>9</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="25">
         <v>3</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="25">
         <v>-6</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="26">
         <v>-0.66669999999999996</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="25">
         <v>129.72</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="25">
         <v>56.24</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="25">
         <v>-73.48</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="26">
         <v>-0.5665</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="28">
         <v>2692</v>
       </c>
-      <c r="C42" s="24">
-        <v>1</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="C42" s="25">
+        <v>1</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0</v>
+      </c>
+      <c r="E42" s="25">
         <v>-1</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="26">
         <v>-1</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="25">
         <v>140.16</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="25">
         <v>14.22</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="25">
         <v>-125.94</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="26">
         <v>-0.89849999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C43" s="24">
-        <v>0</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0</v>
-      </c>
-      <c r="E43" s="24">
-        <v>0</v>
-      </c>
-      <c r="F43" s="25">
-        <v>0</v>
-      </c>
-      <c r="G43" s="24">
+      <c r="B43" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26">
+        <v>0</v>
+      </c>
+      <c r="G43" s="25">
         <v>6.2</v>
       </c>
-      <c r="H43" s="24">
-        <v>0</v>
-      </c>
-      <c r="I43" s="24">
+      <c r="H43" s="25">
+        <v>0</v>
+      </c>
+      <c r="I43" s="25">
         <v>-6.2</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="28">
         <v>2692</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="25">
         <v>2</v>
       </c>
-      <c r="D44" s="24">
-        <v>0</v>
-      </c>
-      <c r="E44" s="24">
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
         <v>-2</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="26">
         <v>-1</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="25">
         <v>16.75</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="25">
         <v>17.329999999999998</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="26">
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="28">
         <v>2856</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="25">
         <v>4</v>
       </c>
-      <c r="D45" s="24">
-        <v>0</v>
-      </c>
-      <c r="E45" s="24">
+      <c r="D45" s="25">
+        <v>0</v>
+      </c>
+      <c r="E45" s="25">
         <v>-4</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="26">
         <v>-1</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="25">
         <v>141.97</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="25">
         <v>13.49</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="25">
         <v>-128.47999999999999</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="26">
         <v>-0.90500000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C46" s="24">
+      <c r="B46" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C46" s="25">
         <v>2</v>
       </c>
-      <c r="D46" s="24">
-        <v>0</v>
-      </c>
-      <c r="E46" s="24">
+      <c r="D46" s="25">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
         <v>-2</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="26">
         <v>-1</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="25">
         <v>44.44</v>
       </c>
-      <c r="H46" s="24">
-        <v>0</v>
-      </c>
-      <c r="I46" s="24">
+      <c r="H46" s="25">
+        <v>0</v>
+      </c>
+      <c r="I46" s="25">
         <v>-44.44</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="28">
         <v>2692</v>
       </c>
-      <c r="C47" s="24">
-        <v>1</v>
-      </c>
-      <c r="D47" s="24">
-        <v>0</v>
-      </c>
-      <c r="E47" s="24">
+      <c r="C47" s="25">
+        <v>1</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="25">
         <v>-1</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="26">
         <v>-1</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="25">
         <v>9.61</v>
       </c>
-      <c r="H47" s="24">
-        <v>0</v>
-      </c>
-      <c r="I47" s="24">
+      <c r="H47" s="25">
+        <v>0</v>
+      </c>
+      <c r="I47" s="25">
         <v>-9.61</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="28">
         <v>2856</v>
       </c>
-      <c r="C48" s="24">
-        <v>0</v>
-      </c>
-      <c r="D48" s="24">
-        <v>0</v>
-      </c>
-      <c r="E48" s="24">
-        <v>0</v>
-      </c>
-      <c r="F48" s="25">
-        <v>0</v>
-      </c>
-      <c r="G48" s="24">
-        <v>0</v>
-      </c>
-      <c r="H48" s="24">
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0</v>
+      </c>
+      <c r="G48" s="25">
+        <v>0</v>
+      </c>
+      <c r="H48" s="25">
         <v>6.64</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="25">
         <v>6.64</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C49" s="24">
-        <v>0</v>
-      </c>
-      <c r="D49" s="24">
-        <v>0</v>
-      </c>
-      <c r="E49" s="24">
-        <v>0</v>
-      </c>
-      <c r="F49" s="25">
-        <v>0</v>
-      </c>
-      <c r="G49" s="24">
-        <v>0</v>
-      </c>
-      <c r="H49" s="24">
+      <c r="B49" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="25">
+        <v>0</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0</v>
+      </c>
+      <c r="G49" s="25">
+        <v>0</v>
+      </c>
+      <c r="H49" s="25">
         <v>8.82</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="25">
         <v>8.82</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="28">
         <v>2692</v>
       </c>
-      <c r="C50" s="24">
-        <v>0</v>
-      </c>
-      <c r="D50" s="24">
-        <v>1</v>
-      </c>
-      <c r="E50" s="24">
-        <v>1</v>
-      </c>
-      <c r="F50" s="25">
-        <v>1</v>
-      </c>
-      <c r="G50" s="24">
-        <v>0</v>
-      </c>
-      <c r="H50" s="24">
+      <c r="C50" s="25">
+        <v>0</v>
+      </c>
+      <c r="D50" s="25">
+        <v>1</v>
+      </c>
+      <c r="E50" s="25">
+        <v>1</v>
+      </c>
+      <c r="F50" s="26">
+        <v>1</v>
+      </c>
+      <c r="G50" s="25">
+        <v>0</v>
+      </c>
+      <c r="H50" s="25">
         <v>61.13</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="25">
         <v>61.13</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="28">
         <v>2856</v>
       </c>
-      <c r="C51" s="24">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
-      <c r="E51" s="24">
-        <v>0</v>
-      </c>
-      <c r="F51" s="25">
-        <v>0</v>
-      </c>
-      <c r="G51" s="24">
-        <v>0</v>
-      </c>
-      <c r="H51" s="24">
+      <c r="C51" s="25">
+        <v>0</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26">
+        <v>0</v>
+      </c>
+      <c r="G51" s="25">
+        <v>0</v>
+      </c>
+      <c r="H51" s="25">
         <v>34.950000000000003</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="25">
         <v>34.950000000000003</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="28">
         <v>2692</v>
       </c>
-      <c r="C52" s="24">
-        <v>0</v>
-      </c>
-      <c r="D52" s="24">
-        <v>0</v>
-      </c>
-      <c r="E52" s="24">
-        <v>0</v>
-      </c>
-      <c r="F52" s="25">
-        <v>0</v>
-      </c>
-      <c r="G52" s="24">
-        <v>0</v>
-      </c>
-      <c r="H52" s="24">
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+      <c r="D52" s="25">
+        <v>0</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0</v>
+      </c>
+      <c r="G52" s="25">
+        <v>0</v>
+      </c>
+      <c r="H52" s="25">
         <v>8.08</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="25">
         <v>8.08</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="28">
         <v>2692</v>
       </c>
-      <c r="C53" s="24">
-        <v>0</v>
-      </c>
-      <c r="D53" s="24">
-        <v>0</v>
-      </c>
-      <c r="E53" s="24">
-        <v>0</v>
-      </c>
-      <c r="F53" s="25">
-        <v>0</v>
-      </c>
-      <c r="G53" s="24">
-        <v>0</v>
-      </c>
-      <c r="H53" s="24">
+      <c r="C53" s="25">
+        <v>0</v>
+      </c>
+      <c r="D53" s="25">
+        <v>0</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0</v>
+      </c>
+      <c r="G53" s="25">
+        <v>0</v>
+      </c>
+      <c r="H53" s="25">
         <v>9.17</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="25">
         <v>9.17</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="28">
         <v>2692</v>
       </c>
-      <c r="C54" s="24">
-        <v>0</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0</v>
-      </c>
-      <c r="E54" s="24">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25">
-        <v>0</v>
-      </c>
-      <c r="G54" s="24">
-        <v>0</v>
-      </c>
-      <c r="H54" s="24">
-        <v>0</v>
-      </c>
-      <c r="I54" s="24">
-        <v>0</v>
-      </c>
-      <c r="J54" s="25">
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="25">
+        <v>0</v>
+      </c>
+      <c r="E54" s="25">
+        <v>0</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0</v>
+      </c>
+      <c r="G54" s="25">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25">
+        <v>0</v>
+      </c>
+      <c r="I54" s="25">
+        <v>0</v>
+      </c>
+      <c r="J54" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="28">
         <v>2856</v>
       </c>
-      <c r="C55" s="24">
-        <v>0</v>
-      </c>
-      <c r="D55" s="24">
-        <v>1</v>
-      </c>
-      <c r="E55" s="24">
-        <v>1</v>
-      </c>
-      <c r="F55" s="25">
-        <v>1</v>
-      </c>
-      <c r="G55" s="24">
-        <v>0</v>
-      </c>
-      <c r="H55" s="24">
+      <c r="C55" s="25">
+        <v>0</v>
+      </c>
+      <c r="D55" s="25">
+        <v>1</v>
+      </c>
+      <c r="E55" s="25">
+        <v>1</v>
+      </c>
+      <c r="F55" s="26">
+        <v>1</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25">
         <v>90.72</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="25">
         <v>90.72</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0</v>
-      </c>
-      <c r="D56" s="24">
-        <v>0</v>
-      </c>
-      <c r="E56" s="24">
-        <v>0</v>
-      </c>
-      <c r="F56" s="25">
-        <v>0</v>
-      </c>
-      <c r="G56" s="24">
-        <v>0</v>
-      </c>
-      <c r="H56" s="24">
+      <c r="B56" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0</v>
+      </c>
+      <c r="E56" s="25">
+        <v>0</v>
+      </c>
+      <c r="F56" s="26">
+        <v>0</v>
+      </c>
+      <c r="G56" s="25">
+        <v>0</v>
+      </c>
+      <c r="H56" s="25">
         <v>2.37</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="25">
         <v>2.37</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="28">
         <v>2856</v>
       </c>
-      <c r="C57" s="24">
-        <v>0</v>
-      </c>
-      <c r="D57" s="24">
-        <v>1</v>
-      </c>
-      <c r="E57" s="24">
-        <v>1</v>
-      </c>
-      <c r="F57" s="25">
-        <v>1</v>
-      </c>
-      <c r="G57" s="24">
-        <v>0</v>
-      </c>
-      <c r="H57" s="24">
+      <c r="C57" s="25">
+        <v>0</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1</v>
+      </c>
+      <c r="E57" s="25">
+        <v>1</v>
+      </c>
+      <c r="F57" s="26">
+        <v>1</v>
+      </c>
+      <c r="G57" s="25">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25">
         <v>50.24</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="25">
         <v>50.24</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="27">
-        <v>2043</v>
-      </c>
-      <c r="C58" s="24">
-        <v>0</v>
-      </c>
-      <c r="D58" s="24">
-        <v>0</v>
-      </c>
-      <c r="E58" s="24">
-        <v>0</v>
-      </c>
-      <c r="F58" s="25">
-        <v>0</v>
-      </c>
-      <c r="G58" s="24">
-        <v>0</v>
-      </c>
-      <c r="H58" s="24">
+      <c r="B58" s="28">
+        <v>2043</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0</v>
+      </c>
+      <c r="D58" s="25">
+        <v>0</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0</v>
+      </c>
+      <c r="G58" s="25">
+        <v>0</v>
+      </c>
+      <c r="H58" s="25">
         <v>1.58</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="25">
         <v>1.58</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J58" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="28">
         <v>2856</v>
       </c>
-      <c r="C59" s="24">
-        <v>0</v>
-      </c>
-      <c r="D59" s="24">
+      <c r="C59" s="25">
+        <v>0</v>
+      </c>
+      <c r="D59" s="25">
         <v>3</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="25">
         <v>3</v>
       </c>
-      <c r="F59" s="25">
-        <v>1</v>
-      </c>
-      <c r="G59" s="24">
-        <v>0</v>
-      </c>
-      <c r="H59" s="24">
+      <c r="F59" s="26">
+        <v>1</v>
+      </c>
+      <c r="G59" s="25">
+        <v>0</v>
+      </c>
+      <c r="H59" s="25">
         <v>46.98</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="25">
         <v>46.98</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="28">
         <v>2856</v>
       </c>
-      <c r="C60" s="24">
-        <v>0</v>
-      </c>
-      <c r="D60" s="24">
+      <c r="C60" s="25">
+        <v>0</v>
+      </c>
+      <c r="D60" s="25">
         <v>2</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="25">
         <v>2</v>
       </c>
-      <c r="F60" s="25">
-        <v>1</v>
-      </c>
-      <c r="G60" s="24">
-        <v>0</v>
-      </c>
-      <c r="H60" s="24">
+      <c r="F60" s="26">
+        <v>1</v>
+      </c>
+      <c r="G60" s="25">
+        <v>0</v>
+      </c>
+      <c r="H60" s="25">
         <v>20.2</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="25">
         <v>20.2</v>
       </c>
-      <c r="J60" s="25">
+      <c r="J60" s="26">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="38" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23">
+    <cfRule type="expression" dxfId="54" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="36" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="21">
+    <cfRule type="expression" dxfId="52" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15">
+    <cfRule type="expression" dxfId="50" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="47" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="43" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/administrador/resumen_general.xlsx
+++ b/administrador/resumen_general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/administrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E229FD-562A-2B49-B320-C4C2F5097901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814158B0-4173-5D45-9782-228891D97BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B03E385-4D70-1443-97FA-03D8B48AE23F}"/>
   </bookViews>
@@ -765,7 +765,303 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="189">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -3398,61 +3694,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:J47" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}" name="Tabla2" displayName="Tabla2" ref="A2:J47" totalsRowShown="0" headerRowDxfId="188" dataDxfId="186" headerRowBorderDxfId="187" tableBorderDxfId="185">
   <autoFilter ref="A2:J47" xr:uid="{EF3678E2-D2A6-8844-A43D-E5D3D290BCA5}"/>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="160"/>
-    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas-Pagadas" dataDxfId="159"/>
-    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="158"/>
-    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Recibo_Ordinario_Pagado" dataDxfId="157"/>
-    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total _Prima_Pagada" dataDxfId="156"/>
-    <tableColumn id="1" xr3:uid="{E28A327A-321D-AB4B-A3E4-B84B36B11129}" name="Pólizas_Pendinetes" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{2AAC82E1-6CC3-F045-B587-E5A490F632BF}" name="Recibo_Inicial_Pendiente" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{1857825C-6430-7844-B09E-A33AFAEE6854}" name="Recibo_Ordinario_Pendiente" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{48B56B42-A49D-2E42-8271-5CB59AB26C60}" name="Total _Prima_Pendiente" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{567489A3-0130-DE4E-B66F-770D47C320B3}" name="Nombre Asesor" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{6065379F-3C87-B349-8B0F-6362B9908C0D}" name="Sucursal" dataDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{DFDB0618-8825-D24B-BE4F-C2CBA1EB5FDC}" name="Pólizas-Pagadas" dataDxfId="182"/>
+    <tableColumn id="6" xr3:uid="{6E4EF166-CCB0-5B4D-B02F-98DED29DC247}" name="Recibo_Inicial_Pagado" dataDxfId="181"/>
+    <tableColumn id="7" xr3:uid="{756B903A-962E-F640-B6D0-43B46DBAE2C4}" name="Recibo_Ordinario_Pagado" dataDxfId="180"/>
+    <tableColumn id="8" xr3:uid="{15464F8D-A190-224E-954A-B011EC99914E}" name="Total _Prima_Pagada" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{E28A327A-321D-AB4B-A3E4-B84B36B11129}" name="Pólizas_Pendinetes" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{2AAC82E1-6CC3-F045-B587-E5A490F632BF}" name="Recibo_Inicial_Pendiente" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{1857825C-6430-7844-B09E-A33AFAEE6854}" name="Recibo_Ordinario_Pendiente" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{48B56B42-A49D-2E42-8271-5CB59AB26C60}" name="Total _Prima_Pendiente" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}" name="Tabla3" displayName="Tabla3" ref="N2:Y6" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177">
   <autoFilter ref="N2:Y6" xr:uid="{C7996A95-CF3C-F141-8E91-B8BCC568AE96}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="151" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="150" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="149" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="148" dataCellStyle="Porcentaje"/>
-    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="147" dataCellStyle="Porcentaje"/>
-    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="146" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="145" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="144" dataCellStyle="Porcentaje"/>
-    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="143"/>
-    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{2C62924E-321A-3F41-AF78-C7BD48702FE6}" name="Sucursal" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{03EE0001-075B-DB48-BD6C-FD285343B8DF}" name="Agentes" dataDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{D322F0A9-DF1B-6342-A752-2BD474FD8932}" name="Asesores_con_Emisión_Vida" dataDxfId="174" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{89CC3B21-F460-AF40-88BA-662B3F86DD2F}" name="%_Asesores_con_Emisión_Vida" dataDxfId="173" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{AEA4345E-12E1-5041-8E34-03CD029CF4C8}" name="Asesores_con_Emisión_GMM" dataDxfId="172" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{A33DEBAA-81E1-5745-809D-3225F616DE15}" name="%_Asesores_con_Emisión_GMM" dataDxfId="171" dataCellStyle="Porcentaje"/>
+    <tableColumn id="7" xr3:uid="{E547A12E-38A5-3645-9DE2-EFF3DCF3DB30}" name="Asesores_con_pol_Pagada_Vida" dataDxfId="170" dataCellStyle="Porcentaje"/>
+    <tableColumn id="8" xr3:uid="{D5C38221-7805-B14F-ACF8-6D63156AA187}" name="%_Asesores_con_pol_Pagada_Vida" dataDxfId="169" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{236C76F2-7149-8148-9FE3-6C51C2181E13}" name="Asesores_con_pol_Pagada_GMM" dataDxfId="168" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{23DD5D1F-6EF8-E44C-A7A9-67C308D41B1B}" name="%_Asesores_con_pol_Pagada_GMM" dataDxfId="167" dataCellStyle="Porcentaje"/>
+    <tableColumn id="11" xr3:uid="{D3D66AF9-B8A7-DF4D-BBD1-7727B28B50BB}" name="Prima_Pagada_Vida" dataDxfId="166"/>
+    <tableColumn id="12" xr3:uid="{BCF3339C-535D-7143-87C3-088A311729F3}" name="Prima_Pagada_GMM" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}" name="Tabla7" displayName="Tabla7" ref="A2:L49" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A2:L49" xr:uid="{95F6C6AD-0F36-4543-B787-C113356A3C91}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="133"/>
-    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="130"/>
-    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="129"/>
-    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{2204DBA5-0702-1245-99CF-F40C8C6E52B6}" name="Asesor" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{BC529EE2-4C82-9A4F-8611-5361D795A324}" name="Sucursal" dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{1E32D02E-886A-7F4F-A030-020603C42B62}" name="Emitido_Vida" dataDxfId="160"/>
+    <tableColumn id="5" xr3:uid="{90E38267-9AAC-6C4E-89C4-6FD642480CE9}" name="Emitido_GMM" dataDxfId="159"/>
+    <tableColumn id="6" xr3:uid="{04B64085-4C47-B349-B80C-94CC79537BBF}" name="Pagado_Vida" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{8B103651-A253-DC4C-AA6B-8797B74ED794}" name="Pagado_GMM" dataDxfId="157"/>
+    <tableColumn id="8" xr3:uid="{5942D024-C75F-9347-A784-5F257195BF6B}" name="Prima_Pagada_Vida" dataDxfId="156"/>
+    <tableColumn id="9" xr3:uid="{7D199811-1CC4-2C41-A6AF-44138B23B1AA}" name="Prima_Pagada_GMM" dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{40107B60-D100-674B-900D-B96E19CFFA25}" name="Sin_Emisión_Vida" dataDxfId="154"/>
+    <tableColumn id="11" xr3:uid="{4B6995EB-7B42-7240-9BA4-85136CA6F418}" name="Sin_Emisión_GMM" dataDxfId="153"/>
+    <tableColumn id="12" xr3:uid="{A089BD91-0F49-8A40-922D-B82A9DA46E38}" name="3_Meses_Sin_Emisión_Vida" dataDxfId="152"/>
+    <tableColumn id="13" xr3:uid="{F02A0105-00B0-734A-B20B-31E07B82908D}" name="3_Meses_Sin_Emisión_GMM" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3477,26 +3773,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}" name="Tabla8" displayName="Tabla8" ref="A2:J60" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
   <autoFilter ref="A2:J60" xr:uid="{8E304F4B-C1E2-9E4A-98A7-5782F07B324B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="120" dataCellStyle="Porcentaje"/>
-    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="116" dataCellStyle="Porcentaje"/>
+    <tableColumn id="1" xr3:uid="{D83FB5D5-E48D-CC46-830D-D387CDA99429}" name="Asesor" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{C470ED6D-1901-E740-A398-E6BD65F8E6AF}" name="Sucursal" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{BFC0EA40-E0A9-E94E-9D8A-75B738703021}" name="Polizas_Pagadas_Año_Anterior" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{892529B2-ABAE-EF44-8537-4418F64F171B}" name="Polizas_Pagadas_Año_Actual" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{2F379D17-28E1-B240-AAD1-AAFAD4060ADB}" name="Crec_Polizas_Pagadas" dataDxfId="144"/>
+    <tableColumn id="5" xr3:uid="{45011D63-A532-9142-BF79-165C02039C51}" name="%_Crec_Polizas_Pagadas" dataDxfId="143" dataCellStyle="Porcentaje"/>
+    <tableColumn id="6" xr3:uid="{F115372D-3BF6-F54E-B2F9-27E216A48542}" name="Prima_Pagada_Año_Anterior" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{566C8A2B-6902-1449-BDEA-34F00E69779A}" name="Prima_Pagada_Año_Actual" dataDxfId="141"/>
+    <tableColumn id="8" xr3:uid="{7C5D56D7-9B6D-C64F-A643-94A7B3FCAC39}" name="Crec_Prima_Pagada" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{0DFBD021-0FCA-0748-839C-22C72DCBA35F}" name="%_Crec_Prima_Pagada" dataDxfId="139" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="115" headerRowBorderDxfId="114" tableBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}" name="Tabla10" displayName="Tabla10" ref="M2:AB4" totalsRowShown="0" headerRowDxfId="138" headerRowBorderDxfId="137" tableBorderDxfId="136">
   <autoFilter ref="M2:AB4" xr:uid="{A29DCA76-5097-2F45-94DA-4B121F22F1F5}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{092EDBAB-8D8A-EA4D-9E0C-E48510EA1510}" name="Polizas_Pagadas_Año_Anterior"/>
@@ -3843,7 +4139,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3862,7 +4158,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="34">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -3947,10 +4243,10 @@
         <v>2979.51</v>
       </c>
       <c r="E4" s="4">
-        <v>111205.27</v>
+        <v>116582.82</v>
       </c>
       <c r="F4" s="4">
-        <v>114184.78</v>
+        <v>119562.33</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -3959,10 +4255,10 @@
         <v>24118.68</v>
       </c>
       <c r="I4" s="4">
-        <v>251326.53</v>
+        <v>245948.98</v>
       </c>
       <c r="J4" s="4">
-        <v>275445.21000000002</v>
+        <v>270067.65999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3999,86 +4295,86 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>2856</v>
       </c>
       <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>18550.03</v>
+      </c>
+      <c r="E6" s="4">
+        <v>36422.839999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>54972.87</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>3273.67</v>
-      </c>
-      <c r="E6" s="4">
-        <v>49709.32</v>
-      </c>
-      <c r="F6" s="4">
-        <v>52982.99</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>3698.6</v>
       </c>
       <c r="I6" s="4">
-        <v>21966.880000000001</v>
+        <v>189775.73</v>
       </c>
       <c r="J6" s="4">
-        <v>21966.880000000001</v>
+        <v>193474.33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>2856</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>18550.03</v>
+        <v>3273.67</v>
       </c>
       <c r="E7" s="4">
-        <v>33725.25</v>
+        <v>49709.32</v>
       </c>
       <c r="F7" s="4">
-        <v>52275.28</v>
+        <v>52982.99</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>3698.6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>189775.73</v>
+        <v>21966.880000000001</v>
       </c>
       <c r="J7" s="4">
-        <v>193474.33</v>
+        <v>21966.880000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>2692</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>8771.2099999999991</v>
+        <v>1657.5</v>
       </c>
       <c r="E8" s="4">
-        <v>25352.99</v>
+        <v>41014.769999999997</v>
       </c>
       <c r="F8" s="4">
-        <v>34124.199999999997</v>
+        <v>42672.27</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -4087,30 +4383,30 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>114458.92</v>
+        <v>50354.53</v>
       </c>
       <c r="J8" s="4">
-        <v>114458.92</v>
+        <v>50354.53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>8771.2099999999991</v>
       </c>
       <c r="E9" s="4">
-        <v>27079.33</v>
+        <v>25352.99</v>
       </c>
       <c r="F9" s="4">
-        <v>27079.33</v>
+        <v>34124.199999999997</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -4119,15 +4415,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>129008.51</v>
+        <v>114458.92</v>
       </c>
       <c r="J9" s="4">
-        <v>129008.51</v>
+        <v>114458.92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>2043</v>
@@ -4139,94 +4435,94 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>22054.400000000001</v>
+        <v>27079.33</v>
       </c>
       <c r="F10" s="4">
-        <v>22054.400000000001</v>
+        <v>27079.33</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>24026.04</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>75875.25</v>
+        <v>129008.51</v>
       </c>
       <c r="J10" s="4">
-        <v>99901.29</v>
+        <v>129008.51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>11621.35</v>
       </c>
       <c r="E11" s="4">
-        <v>20077.400000000001</v>
+        <v>11532.26</v>
       </c>
       <c r="F11" s="4">
-        <v>20077.400000000001</v>
+        <v>23153.61</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>10311.540000000001</v>
       </c>
       <c r="I11" s="4">
-        <v>42810.25</v>
+        <v>37026.089999999997</v>
       </c>
       <c r="J11" s="4">
-        <v>42810.25</v>
+        <v>47337.63</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>2043</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>1973.29</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>13552</v>
+        <v>22054.400000000001</v>
       </c>
       <c r="F12" s="4">
-        <v>15525.29</v>
+        <v>22054.400000000001</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>24026.04</v>
       </c>
       <c r="I12" s="4">
-        <v>46859.360000000001</v>
+        <v>75875.25</v>
       </c>
       <c r="J12" s="4">
-        <v>46859.360000000001</v>
+        <v>99901.29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -4235,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>14887.38</v>
+        <v>20077.400000000001</v>
       </c>
       <c r="F13" s="4">
-        <v>14887.38</v>
+        <v>20077.400000000001</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -4247,30 +4543,30 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>14887.38</v>
+        <v>42810.25</v>
       </c>
       <c r="J13" s="4">
-        <v>14887.38</v>
+        <v>42810.25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>1973.29</v>
       </c>
       <c r="E14" s="4">
-        <v>14217.61</v>
+        <v>13552</v>
       </c>
       <c r="F14" s="4">
-        <v>14217.61</v>
+        <v>15525.29</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -4279,18 +4575,18 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>113740.88</v>
+        <v>46859.360000000001</v>
       </c>
       <c r="J14" s="4">
-        <v>113740.88</v>
+        <v>46859.360000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -4299,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>11945.29</v>
+        <v>14887.38</v>
       </c>
       <c r="F15" s="4">
-        <v>11945.29</v>
+        <v>14887.38</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -4311,15 +4607,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>66315.25</v>
+        <v>14887.38</v>
       </c>
       <c r="J15" s="4">
-        <v>66315.25</v>
+        <v>14887.38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>2692</v>
@@ -4331,30 +4627,30 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>11532.26</v>
+        <v>14217.61</v>
       </c>
       <c r="F16" s="4">
-        <v>11532.26</v>
+        <v>14217.61</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>21932.89</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>37026.089999999997</v>
+        <v>113740.88</v>
       </c>
       <c r="J16" s="4">
-        <v>58958.98</v>
+        <v>113740.88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -4363,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>9688.8700000000008</v>
+        <v>11945.29</v>
       </c>
       <c r="F17" s="4">
-        <v>9688.8700000000008</v>
+        <v>11945.29</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -4375,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>24855.21</v>
+        <v>66315.25</v>
       </c>
       <c r="J17" s="4">
-        <v>24855.21</v>
+        <v>66315.25</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -4395,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>9281.48</v>
+        <v>10995.07</v>
       </c>
       <c r="F18" s="4">
-        <v>9281.48</v>
+        <v>10995.07</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -4407,15 +4703,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>34668.69</v>
+        <v>32955.1</v>
       </c>
       <c r="J18" s="4">
-        <v>34668.69</v>
+        <v>32955.1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>2043</v>
@@ -4427,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>8821.32</v>
+        <v>9688.8700000000008</v>
       </c>
       <c r="F19" s="4">
-        <v>8821.32</v>
+        <v>9688.8700000000008</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -4439,18 +4735,18 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>11272.92</v>
+        <v>24855.21</v>
       </c>
       <c r="J19" s="4">
-        <v>11272.92</v>
+        <v>24855.21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -4459,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>7991.52</v>
+        <v>8821.32</v>
       </c>
       <c r="F20" s="4">
-        <v>7991.52</v>
+        <v>8821.32</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -4471,15 +4767,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>55306.96</v>
+        <v>11272.92</v>
       </c>
       <c r="J20" s="4">
-        <v>55306.96</v>
+        <v>11272.92</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>2692</v>
@@ -4488,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>-6.95</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>7467.79</v>
+        <v>7991.52</v>
       </c>
       <c r="F21" s="4">
-        <v>7460.84</v>
+        <v>7991.52</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -4503,30 +4799,30 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>15352.07</v>
+        <v>55306.96</v>
       </c>
       <c r="J21" s="4">
-        <v>15352.07</v>
+        <v>55306.96</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
-        <v>2856</v>
+        <v>2692</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>1809.19</v>
+        <v>-6.95</v>
       </c>
       <c r="E22" s="4">
-        <v>4906.95</v>
+        <v>7467.79</v>
       </c>
       <c r="F22" s="4">
-        <v>6716.14</v>
+        <v>7460.84</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -4535,30 +4831,30 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>43873.2</v>
+        <v>15352.07</v>
       </c>
       <c r="J22" s="4">
-        <v>43873.2</v>
+        <v>15352.07</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>2300.5300000000002</v>
       </c>
       <c r="E23" s="4">
-        <v>6639.64</v>
+        <v>4417.25</v>
       </c>
       <c r="F23" s="4">
-        <v>6639.64</v>
+        <v>6717.78</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -4567,30 +4863,30 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>8336.92</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>8336.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>2692</v>
+        <v>2856</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>1809.19</v>
       </c>
       <c r="E24" s="4">
-        <v>6463.82</v>
+        <v>4906.95</v>
       </c>
       <c r="F24" s="4">
-        <v>6463.82</v>
+        <v>6716.14</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -4599,18 +4895,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>60745.99</v>
+        <v>43873.2</v>
       </c>
       <c r="J24" s="4">
-        <v>60745.99</v>
+        <v>43873.2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -4619,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>6196.74</v>
+        <v>6639.64</v>
       </c>
       <c r="F25" s="4">
-        <v>6196.74</v>
+        <v>6639.64</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -4631,18 +4927,18 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>8336.92</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>8336.92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>2043</v>
+        <v>2692</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -4651,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>6125.03</v>
+        <v>6463.82</v>
       </c>
       <c r="F26" s="4">
-        <v>6125.03</v>
+        <v>6463.82</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -4663,18 +4959,18 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>0</v>
+        <v>60745.99</v>
       </c>
       <c r="J26" s="4">
-        <v>0</v>
+        <v>60745.99</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>2692</v>
+        <v>2043</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -4683,27 +4979,27 @@
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>5895.02</v>
+        <v>6196.74</v>
       </c>
       <c r="F27" s="4">
-        <v>5895.02</v>
+        <v>6196.74</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="4">
-        <v>36777.25</v>
+        <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>50354.53</v>
+        <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>87131.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>2043</v>
@@ -4715,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>5745.69</v>
+        <v>6125.03</v>
       </c>
       <c r="F28" s="4">
-        <v>5745.69</v>
+        <v>6125.03</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -4727,15 +5023,15 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>22496</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>22496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2">
         <v>2043</v>
@@ -4747,27 +5043,27 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>5620.13</v>
+        <v>5745.69</v>
       </c>
       <c r="F29" s="4">
-        <v>5620.13</v>
+        <v>5745.69</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4">
-        <v>24131.27</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>23573.33</v>
+        <v>22496</v>
       </c>
       <c r="J29" s="4">
-        <v>47704.6</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2">
         <v>2043</v>
@@ -4779,27 +5075,27 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>5138.51</v>
+        <v>5620.13</v>
       </c>
       <c r="F30" s="4">
-        <v>5138.51</v>
+        <v>5620.13</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>24131.27</v>
       </c>
       <c r="I30" s="4">
-        <v>10277.030000000001</v>
+        <v>23573.33</v>
       </c>
       <c r="J30" s="4">
-        <v>10277.030000000001</v>
+        <v>47704.6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>2043</v>
@@ -4811,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>5089.54</v>
+        <v>5138.51</v>
       </c>
       <c r="F31" s="4">
-        <v>5089.54</v>
+        <v>5138.51</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -4823,15 +5119,15 @@
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>10679.89</v>
+        <v>10277.030000000001</v>
       </c>
       <c r="J31" s="4">
-        <v>10679.89</v>
+        <v>10277.030000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
         <v>2043</v>
@@ -4843,10 +5139,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>4663.49</v>
+        <v>5089.54</v>
       </c>
       <c r="F32" s="4">
-        <v>4663.49</v>
+        <v>5089.54</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -4855,18 +5151,18 @@
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>3167.47</v>
+        <v>5098.3999999999996</v>
       </c>
       <c r="J32" s="4">
-        <v>3167.47</v>
+        <v>5098.3999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -4875,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>4487.59</v>
+        <v>4663.49</v>
       </c>
       <c r="F33" s="4">
-        <v>4487.59</v>
+        <v>4663.49</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -4887,18 +5183,18 @@
         <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>38209.879999999997</v>
+        <v>3167.47</v>
       </c>
       <c r="J33" s="4">
-        <v>38209.879999999997</v>
+        <v>3167.47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -4907,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>4192.72</v>
+        <v>4487.59</v>
       </c>
       <c r="F34" s="4">
-        <v>4192.72</v>
+        <v>4487.59</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -4919,79 +5215,79 @@
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>23946.42</v>
+        <v>38209.879999999997</v>
       </c>
       <c r="J34" s="4">
-        <v>23946.42</v>
+        <v>38209.879999999997</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2">
-        <v>2856</v>
+        <v>2043</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>2561.44</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>1432.54</v>
+        <v>4192.72</v>
       </c>
       <c r="F35" s="4">
-        <v>3993.98</v>
+        <v>4192.72</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
-        <v>5165.8599999999997</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>21373.95</v>
+        <v>23946.42</v>
       </c>
       <c r="J35" s="4">
-        <v>26539.81</v>
+        <v>23946.42</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2">
-        <v>2043</v>
+        <v>2856</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>2561.44</v>
       </c>
       <c r="E36" s="4">
-        <v>3151.08</v>
+        <v>1432.54</v>
       </c>
       <c r="F36" s="4">
-        <v>3151.08</v>
+        <v>3993.98</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>5165.8599999999997</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>21373.95</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>26539.81</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2">
         <v>2043</v>
@@ -5003,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>2852.69</v>
+        <v>3151.08</v>
       </c>
       <c r="F37" s="4">
-        <v>2852.69</v>
+        <v>3151.08</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -5015,15 +5311,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>1575.88</v>
+        <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>1575.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>2043</v>
@@ -5035,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>2833.03</v>
+        <v>2852.69</v>
       </c>
       <c r="F38" s="4">
-        <v>2833.03</v>
+        <v>2852.69</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -5047,15 +5343,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>4506.84</v>
+        <v>1575.88</v>
       </c>
       <c r="J38" s="4">
-        <v>4506.84</v>
+        <v>1575.88</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2">
         <v>2043</v>
@@ -5067,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>2133.91</v>
+        <v>2833.03</v>
       </c>
       <c r="F39" s="4">
-        <v>2133.91</v>
+        <v>2833.03</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>5102.97</v>
+        <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>0</v>
+        <v>4506.84</v>
       </c>
       <c r="J39" s="4">
-        <v>5102.97</v>
+        <v>4506.84</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -5324,60 +5620,60 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="109" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="122" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="121" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="104" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="125" stopIfTrue="1">
       <formula>$Q95=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="124" stopIfTrue="1">
       <formula>$Q96=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47 F47">
-    <cfRule type="expression" dxfId="102" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="143" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="142" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="91" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="140" stopIfTrue="1">
       <formula>$Q47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="141" stopIfTrue="1">
       <formula>$Q46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A46">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="21" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B46">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5397,7 +5693,7 @@
       <formula>$S3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F46 J4:J8 J10:J46">
+  <conditionalFormatting sqref="F4:F46 J4:J9 J11:J46">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>$S4=1</formula>
     </cfRule>
@@ -5420,12 +5716,12 @@
       <formula>$S$34=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="J10">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>$S9=1</formula>
+      <formula>$S10=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$S8=1</formula>
+      <formula>$S9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7341,145 +7637,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A49">
-    <cfRule type="expression" dxfId="86" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="19" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B49">
-    <cfRule type="expression" dxfId="84" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="16" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C49">
-    <cfRule type="expression" dxfId="82" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="12" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H49">
-    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="13" stopIfTrue="1">
       <formula>+#REF!="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D49">
-    <cfRule type="expression" dxfId="80" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="11" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E49">
-    <cfRule type="expression" dxfId="79" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="10" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F49">
-    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G49">
-    <cfRule type="expression" dxfId="77" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H49">
-    <cfRule type="expression" dxfId="76" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I49">
-    <cfRule type="expression" dxfId="75" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
       <formula>$R3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="14" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J49">
-    <cfRule type="expression" dxfId="73" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="2" stopIfTrue="1">
       <formula>$S3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K49">
-    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="3" stopIfTrue="1">
       <formula>$T3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="15" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L49">
-    <cfRule type="expression" dxfId="69" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="1" stopIfTrue="1">
       <formula>$U3="i"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="4" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="31" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O6">
-    <cfRule type="expression" dxfId="66" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="30" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="65" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="29" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="expression" dxfId="64" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="28" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R6">
-    <cfRule type="expression" dxfId="63" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="27" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S6">
-    <cfRule type="expression" dxfId="62" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="26" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T6">
-    <cfRule type="expression" dxfId="61" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="25" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="expression" dxfId="60" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="expression" dxfId="59" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="23" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W6">
-    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X6">
-    <cfRule type="expression" dxfId="57" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="21" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y6">
-    <cfRule type="expression" dxfId="56" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10988,98 +11284,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A60">
-    <cfRule type="expression" dxfId="55" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="24" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="23">
+    <cfRule type="expression" dxfId="77" priority="23">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B60">
-    <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="22" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="21">
+    <cfRule type="expression" dxfId="75" priority="21">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C60">
-    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="20" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="15">
+    <cfRule type="expression" dxfId="73" priority="15">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D60">
-    <cfRule type="expression" dxfId="49" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="19" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="71" priority="14">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E60">
-    <cfRule type="expression" dxfId="47" priority="13">
+    <cfRule type="expression" dxfId="70" priority="13">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F60">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F60">
-    <cfRule type="expression" dxfId="43" priority="12">
+    <cfRule type="expression" dxfId="66" priority="12">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="17" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G60">
-    <cfRule type="expression" dxfId="41" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="63" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H60">
-    <cfRule type="expression" dxfId="39" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="8" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I60">
-    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J60">
-    <cfRule type="cellIs" dxfId="35" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="6" stopIfTrue="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
